--- a/infolib.xlsx
+++ b/infolib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/privatstudium/Documents/Programming/PythonApps/SpeciesInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAC1ACD-3A2E-DC4F-9296-7F0565066242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F712D2-0C49-4144-8138-96DE42F8BDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{3105EC4B-B3DB-D644-9FE8-AF38650C143C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{3105EC4B-B3DB-D644-9FE8-AF38650C143C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -3146,9 +3146,6 @@
     <t>Biota|Animalia|Chordata|Vertebrata|Gnathostomata|Osteichthyes|Actinopterygii|Gadiformes|Gadidae|Arctogadus|Arctogadus glacialis</t>
   </si>
   <si>
-    <t>Animalia|Arthropoda|Insecta|Neoptergyii|Lepidoptera|Lycaenidae|Aricia|Aricia agestis</t>
-  </si>
-  <si>
     <t>Biota|Animalia|Chordata|Vertebrata|Gnathostomata|Osteichthyes|Sarcopterygii|Tetrapoda|Amniota|Mammalia|Theria|Eutheria|Rodentia|Myomorpha|Muroidea|Cricetidae|Arvicolinae|Arvicola|Arvicola amphibius</t>
   </si>
   <si>
@@ -5916,6 +5913,9 @@
   </si>
   <si>
     <t>Petersfisch</t>
+  </si>
+  <si>
+    <t>Biota|Animalia|Arthropoda|Insecta|Neoptergyii|Lepidoptera|Lycaenidae|Aricia|Aricia agestis</t>
   </si>
 </sst>
 </file>
@@ -6314,8 +6314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944E8950-FE77-014B-82B7-3C6C92F9BADB}">
   <dimension ref="A1:M378"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="150" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6331,6 +6331,7 @@
     <col min="9" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6350,10 +6351,10 @@
         <v>387</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1365</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1366</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>1001</v>
@@ -6391,10 +6392,10 @@
         <v>442</v>
       </c>
       <c r="F2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G2" t="s">
         <v>1367</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1368</v>
       </c>
       <c r="H2" t="s">
         <v>1002</v>
@@ -6426,7 +6427,7 @@
         <v>390</v>
       </c>
       <c r="F3" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H3" t="s">
         <v>1003</v>
@@ -6464,10 +6465,10 @@
         <v>390</v>
       </c>
       <c r="F4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G4" t="s">
         <v>1370</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1371</v>
       </c>
       <c r="H4" t="s">
         <v>1004</v>
@@ -6505,7 +6506,7 @@
         <v>390</v>
       </c>
       <c r="F5" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H5" t="s">
         <v>1005</v>
@@ -6543,10 +6544,10 @@
         <v>390</v>
       </c>
       <c r="F6" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G6" t="s">
         <v>1373</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1374</v>
       </c>
       <c r="H6" t="s">
         <v>1006</v>
@@ -6584,10 +6585,10 @@
         <v>431</v>
       </c>
       <c r="F7" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G7" t="s">
         <v>1375</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1376</v>
       </c>
       <c r="H7" t="s">
         <v>1007</v>
@@ -6619,10 +6620,10 @@
         <v>390</v>
       </c>
       <c r="F8" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G8" t="s">
         <v>1377</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1378</v>
       </c>
       <c r="H8" t="s">
         <v>1008</v>
@@ -6660,10 +6661,10 @@
         <v>442</v>
       </c>
       <c r="F9" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G9" t="s">
         <v>1379</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1380</v>
       </c>
       <c r="H9" t="s">
         <v>1009</v>
@@ -6695,7 +6696,7 @@
         <v>390</v>
       </c>
       <c r="F10" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H10" t="s">
         <v>1010</v>
@@ -6733,10 +6734,10 @@
         <v>480</v>
       </c>
       <c r="F11" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G11" t="s">
         <v>1382</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1383</v>
       </c>
       <c r="H11" t="s">
         <v>1011</v>
@@ -6774,10 +6775,10 @@
         <v>390</v>
       </c>
       <c r="F12" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G12" t="s">
         <v>1384</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1385</v>
       </c>
       <c r="H12" t="s">
         <v>1012</v>
@@ -6815,10 +6816,10 @@
         <v>390</v>
       </c>
       <c r="F13" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G13" t="s">
         <v>1386</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1387</v>
       </c>
       <c r="H13" t="s">
         <v>1013</v>
@@ -6856,10 +6857,10 @@
         <v>390</v>
       </c>
       <c r="F14" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G14" t="s">
         <v>1388</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1389</v>
       </c>
       <c r="H14" t="s">
         <v>1014</v>
@@ -6897,7 +6898,7 @@
         <v>390</v>
       </c>
       <c r="F15" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="H15" t="s">
         <v>1015</v>
@@ -6935,10 +6936,10 @@
         <v>390</v>
       </c>
       <c r="F16" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G16" t="s">
         <v>1391</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1392</v>
       </c>
       <c r="H16" t="s">
         <v>1016</v>
@@ -6976,10 +6977,10 @@
         <v>390</v>
       </c>
       <c r="F17" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G17" t="s">
         <v>1393</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1394</v>
       </c>
       <c r="H17" t="s">
         <v>1017</v>
@@ -7017,10 +7018,10 @@
         <v>390</v>
       </c>
       <c r="F18" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G18" t="s">
         <v>1395</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1396</v>
       </c>
       <c r="H18" t="s">
         <v>1018</v>
@@ -7058,10 +7059,10 @@
         <v>442</v>
       </c>
       <c r="F19" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G19" t="s">
         <v>1397</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1398</v>
       </c>
       <c r="H19" t="s">
         <v>1019</v>
@@ -7099,10 +7100,10 @@
         <v>390</v>
       </c>
       <c r="F20" t="s">
+        <v>1398</v>
+      </c>
+      <c r="G20" t="s">
         <v>1399</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1400</v>
       </c>
       <c r="H20" t="s">
         <v>1020</v>
@@ -7140,10 +7141,10 @@
         <v>390</v>
       </c>
       <c r="F21" t="s">
+        <v>1398</v>
+      </c>
+      <c r="G21" t="s">
         <v>1399</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1400</v>
       </c>
       <c r="H21" t="s">
         <v>1020</v>
@@ -7181,10 +7182,10 @@
         <v>390</v>
       </c>
       <c r="F22" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G22" t="s">
         <v>1401</v>
-      </c>
-      <c r="G22" t="s">
-        <v>1402</v>
       </c>
       <c r="H22" t="s">
         <v>1021</v>
@@ -7222,10 +7223,10 @@
         <v>390</v>
       </c>
       <c r="F23" t="s">
+        <v>1402</v>
+      </c>
+      <c r="G23" t="s">
         <v>1403</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1404</v>
       </c>
       <c r="H23" t="s">
         <v>1022</v>
@@ -7263,7 +7264,7 @@
         <v>390</v>
       </c>
       <c r="F24" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H24" t="s">
         <v>1023</v>
@@ -7301,10 +7302,10 @@
         <v>390</v>
       </c>
       <c r="F25" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G25" t="s">
         <v>1406</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1407</v>
       </c>
       <c r="H25" t="s">
         <v>1024</v>
@@ -7342,10 +7343,10 @@
         <v>390</v>
       </c>
       <c r="F26" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G26" t="s">
         <v>1408</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1409</v>
       </c>
       <c r="H26" t="s">
         <v>1025</v>
@@ -7383,10 +7384,10 @@
         <v>390</v>
       </c>
       <c r="F27" t="s">
+        <v>1409</v>
+      </c>
+      <c r="G27" t="s">
         <v>1410</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1411</v>
       </c>
       <c r="H27" t="s">
         <v>1026</v>
@@ -7424,10 +7425,10 @@
         <v>390</v>
       </c>
       <c r="F28" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G28" t="s">
         <v>1412</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1413</v>
       </c>
       <c r="H28" t="s">
         <v>1027</v>
@@ -7500,10 +7501,10 @@
         <v>431</v>
       </c>
       <c r="F30" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G30" t="s">
         <v>1414</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1415</v>
       </c>
       <c r="H30" t="s">
         <v>1029</v>
@@ -7535,10 +7536,10 @@
         <v>442</v>
       </c>
       <c r="F31" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G31" t="s">
         <v>1416</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1417</v>
       </c>
       <c r="H31" t="s">
         <v>1030</v>
@@ -7576,10 +7577,10 @@
         <v>442</v>
       </c>
       <c r="F32" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G32" t="s">
         <v>1418</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1419</v>
       </c>
       <c r="H32" t="s">
         <v>1031</v>
@@ -7614,10 +7615,10 @@
         <v>766</v>
       </c>
       <c r="F33" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G33" t="s">
         <v>1420</v>
-      </c>
-      <c r="G33" t="s">
-        <v>1421</v>
       </c>
       <c r="H33" t="s">
         <v>1032</v>
@@ -7649,10 +7650,10 @@
         <v>390</v>
       </c>
       <c r="F34" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G34" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="H34" t="s">
         <v>1033</v>
@@ -7690,7 +7691,7 @@
         <v>390</v>
       </c>
       <c r="F35" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H35" t="s">
         <v>1034</v>
@@ -7728,10 +7729,10 @@
         <v>390</v>
       </c>
       <c r="F36" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G36" t="s">
         <v>1424</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1425</v>
       </c>
       <c r="H36" t="s">
         <v>1035</v>
@@ -7769,13 +7770,13 @@
         <v>612</v>
       </c>
       <c r="F37" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G37" t="s">
         <v>1426</v>
       </c>
-      <c r="G37" t="s">
-        <v>1427</v>
-      </c>
       <c r="H37" t="s">
-        <v>1036</v>
+        <v>1959</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -7804,13 +7805,13 @@
         <v>431</v>
       </c>
       <c r="F38" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G38" t="s">
         <v>1428</v>
       </c>
-      <c r="G38" t="s">
-        <v>1429</v>
-      </c>
       <c r="H38" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="M38" t="s">
         <v>3</v>
@@ -7833,13 +7834,13 @@
         <v>390</v>
       </c>
       <c r="F39" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G39" t="s">
         <v>1430</v>
       </c>
-      <c r="G39" t="s">
-        <v>1431</v>
-      </c>
       <c r="H39" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -7874,13 +7875,13 @@
         <v>390</v>
       </c>
       <c r="F40" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G40" t="s">
         <v>1432</v>
       </c>
-      <c r="G40" t="s">
-        <v>1433</v>
-      </c>
       <c r="H40" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -7912,16 +7913,16 @@
         <v>774</v>
       </c>
       <c r="E41" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="F41" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G41" t="s">
         <v>1434</v>
       </c>
-      <c r="G41" t="s">
-        <v>1435</v>
-      </c>
       <c r="H41" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -7956,13 +7957,13 @@
         <v>390</v>
       </c>
       <c r="F42" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G42" t="s">
         <v>1436</v>
       </c>
-      <c r="G42" t="s">
-        <v>1437</v>
-      </c>
       <c r="H42" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -7997,10 +7998,10 @@
         <v>390</v>
       </c>
       <c r="G43" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="H43" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -8035,13 +8036,13 @@
         <v>442</v>
       </c>
       <c r="F44" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G44" t="s">
         <v>1439</v>
       </c>
-      <c r="G44" t="s">
-        <v>1440</v>
-      </c>
       <c r="H44" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -8076,13 +8077,13 @@
         <v>431</v>
       </c>
       <c r="F45" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G45" t="s">
         <v>1441</v>
       </c>
-      <c r="G45" t="s">
-        <v>1442</v>
-      </c>
       <c r="H45" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -8111,13 +8112,13 @@
         <v>442</v>
       </c>
       <c r="F46" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G46" t="s">
         <v>1443</v>
       </c>
-      <c r="G46" t="s">
-        <v>1444</v>
-      </c>
       <c r="H46" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -8146,13 +8147,13 @@
         <v>390</v>
       </c>
       <c r="F47" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G47" t="s">
         <v>1445</v>
       </c>
-      <c r="G47" t="s">
-        <v>1446</v>
-      </c>
       <c r="H47" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -8187,13 +8188,13 @@
         <v>390</v>
       </c>
       <c r="F48" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G48" t="s">
         <v>1447</v>
       </c>
-      <c r="G48" t="s">
-        <v>1448</v>
-      </c>
       <c r="H48" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -8228,10 +8229,10 @@
         <v>390</v>
       </c>
       <c r="F49" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H49" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -8266,13 +8267,13 @@
         <v>390</v>
       </c>
       <c r="F50" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G50" t="s">
         <v>1450</v>
       </c>
-      <c r="G50" t="s">
-        <v>1451</v>
-      </c>
       <c r="H50" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -8307,13 +8308,13 @@
         <v>390</v>
       </c>
       <c r="F51" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G51" t="s">
         <v>1452</v>
       </c>
-      <c r="G51" t="s">
-        <v>1453</v>
-      </c>
       <c r="H51" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -8348,13 +8349,13 @@
         <v>390</v>
       </c>
       <c r="F52" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G52" t="s">
         <v>1454</v>
       </c>
-      <c r="G52" t="s">
-        <v>1455</v>
-      </c>
       <c r="H52" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -8389,13 +8390,13 @@
         <v>390</v>
       </c>
       <c r="F53" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G53" t="s">
         <v>1454</v>
       </c>
-      <c r="G53" t="s">
-        <v>1455</v>
-      </c>
       <c r="H53" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -8430,10 +8431,10 @@
         <v>390</v>
       </c>
       <c r="F54" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H54" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -8468,13 +8469,13 @@
         <v>390</v>
       </c>
       <c r="F55" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G55" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H55" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -8509,10 +8510,10 @@
         <v>390</v>
       </c>
       <c r="F56" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H56" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -8547,13 +8548,13 @@
         <v>431</v>
       </c>
       <c r="F57" t="s">
+        <v>1458</v>
+      </c>
+      <c r="G57" t="s">
         <v>1459</v>
       </c>
-      <c r="G57" t="s">
-        <v>1460</v>
-      </c>
       <c r="H57" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -8582,13 +8583,13 @@
         <v>431</v>
       </c>
       <c r="F58" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G58" t="s">
         <v>1461</v>
       </c>
-      <c r="G58" t="s">
-        <v>1462</v>
-      </c>
       <c r="H58" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -8620,10 +8621,10 @@
         <v>390</v>
       </c>
       <c r="F59" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="H59" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -8658,13 +8659,13 @@
         <v>390</v>
       </c>
       <c r="F60" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G60" t="s">
         <v>1464</v>
       </c>
-      <c r="G60" t="s">
-        <v>1465</v>
-      </c>
       <c r="H60" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -8699,13 +8700,13 @@
         <v>390</v>
       </c>
       <c r="F61" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G61" t="s">
         <v>1466</v>
       </c>
-      <c r="G61" t="s">
-        <v>1467</v>
-      </c>
       <c r="H61" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -8740,13 +8741,13 @@
         <v>442</v>
       </c>
       <c r="F62" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G62" t="s">
         <v>1468</v>
       </c>
-      <c r="G62" t="s">
-        <v>1469</v>
-      </c>
       <c r="H62" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -8775,13 +8776,13 @@
         <v>721</v>
       </c>
       <c r="F63" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G63" t="s">
         <v>1470</v>
       </c>
-      <c r="G63" t="s">
-        <v>1471</v>
-      </c>
       <c r="H63" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -8816,10 +8817,10 @@
         <v>390</v>
       </c>
       <c r="F64" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H64" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -8854,13 +8855,13 @@
         <v>442</v>
       </c>
       <c r="F65" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G65" t="s">
         <v>1473</v>
       </c>
-      <c r="G65" t="s">
-        <v>1474</v>
-      </c>
       <c r="H65" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -8889,13 +8890,13 @@
         <v>431</v>
       </c>
       <c r="F66" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G66" t="s">
         <v>1475</v>
       </c>
-      <c r="G66" t="s">
-        <v>1476</v>
-      </c>
       <c r="H66" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -8927,13 +8928,13 @@
         <v>442</v>
       </c>
       <c r="F67" t="s">
+        <v>1476</v>
+      </c>
+      <c r="G67" t="s">
         <v>1477</v>
       </c>
-      <c r="G67" t="s">
-        <v>1478</v>
-      </c>
       <c r="H67" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -8968,10 +8969,10 @@
         <v>390</v>
       </c>
       <c r="G68" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H68" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -9006,13 +9007,13 @@
         <v>390</v>
       </c>
       <c r="F69" t="s">
+        <v>1479</v>
+      </c>
+      <c r="G69" t="s">
         <v>1480</v>
       </c>
-      <c r="G69" t="s">
-        <v>1481</v>
-      </c>
       <c r="H69" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -9047,13 +9048,13 @@
         <v>480</v>
       </c>
       <c r="F70" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G70" t="s">
         <v>1482</v>
       </c>
-      <c r="G70" t="s">
-        <v>1483</v>
-      </c>
       <c r="H70" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -9088,13 +9089,13 @@
         <v>442</v>
       </c>
       <c r="F71" t="s">
+        <v>1483</v>
+      </c>
+      <c r="G71" t="s">
         <v>1484</v>
       </c>
-      <c r="G71" t="s">
-        <v>1485</v>
-      </c>
       <c r="H71" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -9123,10 +9124,10 @@
         <v>442</v>
       </c>
       <c r="F72" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H72" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -9158,13 +9159,13 @@
         <v>431</v>
       </c>
       <c r="F73" t="s">
+        <v>1486</v>
+      </c>
+      <c r="G73" t="s">
         <v>1487</v>
       </c>
-      <c r="G73" t="s">
-        <v>1488</v>
-      </c>
       <c r="H73" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -9193,13 +9194,13 @@
         <v>390</v>
       </c>
       <c r="F74" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G74" t="s">
         <v>1489</v>
       </c>
-      <c r="G74" t="s">
-        <v>1490</v>
-      </c>
       <c r="H74" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -9234,13 +9235,13 @@
         <v>390</v>
       </c>
       <c r="F75" t="s">
+        <v>1490</v>
+      </c>
+      <c r="G75" t="s">
         <v>1491</v>
       </c>
-      <c r="G75" t="s">
-        <v>1492</v>
-      </c>
       <c r="H75" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -9275,13 +9276,13 @@
         <v>517</v>
       </c>
       <c r="F76" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G76" t="s">
         <v>1493</v>
       </c>
-      <c r="G76" t="s">
-        <v>1494</v>
-      </c>
       <c r="H76" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -9307,13 +9308,13 @@
         <v>442</v>
       </c>
       <c r="F77" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G77" t="s">
         <v>1495</v>
       </c>
-      <c r="G77" t="s">
-        <v>1496</v>
-      </c>
       <c r="H77" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -9342,10 +9343,10 @@
         <v>431</v>
       </c>
       <c r="F78" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H78" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -9374,13 +9375,13 @@
         <v>442</v>
       </c>
       <c r="F79" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G79" t="s">
         <v>1498</v>
       </c>
-      <c r="G79" t="s">
-        <v>1499</v>
-      </c>
       <c r="H79" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -9412,13 +9413,13 @@
         <v>390</v>
       </c>
       <c r="F80" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G80" t="s">
         <v>1500</v>
       </c>
-      <c r="G80" t="s">
-        <v>1501</v>
-      </c>
       <c r="H80" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -9453,13 +9454,13 @@
         <v>442</v>
       </c>
       <c r="F81" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G81" t="s">
         <v>1502</v>
       </c>
-      <c r="G81" t="s">
-        <v>1503</v>
-      </c>
       <c r="H81" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -9488,13 +9489,13 @@
         <v>442</v>
       </c>
       <c r="F82" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G82" t="s">
         <v>1504</v>
       </c>
-      <c r="G82" t="s">
-        <v>1505</v>
-      </c>
       <c r="H82" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -9523,13 +9524,13 @@
         <v>390</v>
       </c>
       <c r="F83" t="s">
+        <v>1505</v>
+      </c>
+      <c r="G83" t="s">
         <v>1506</v>
       </c>
-      <c r="G83" t="s">
-        <v>1507</v>
-      </c>
       <c r="H83" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -9564,10 +9565,10 @@
         <v>390</v>
       </c>
       <c r="F84" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H84" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -9602,10 +9603,10 @@
         <v>390</v>
       </c>
       <c r="G85" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="H85" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -9640,13 +9641,13 @@
         <v>442</v>
       </c>
       <c r="F86" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G86" t="s">
         <v>1510</v>
       </c>
-      <c r="G86" t="s">
-        <v>1511</v>
-      </c>
       <c r="H86" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -9678,13 +9679,13 @@
         <v>390</v>
       </c>
       <c r="F87" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G87" t="s">
         <v>1512</v>
       </c>
-      <c r="G87" t="s">
-        <v>1513</v>
-      </c>
       <c r="H87" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -9719,13 +9720,13 @@
         <v>442</v>
       </c>
       <c r="F88" t="s">
+        <v>1513</v>
+      </c>
+      <c r="G88" t="s">
         <v>1514</v>
       </c>
-      <c r="G88" t="s">
-        <v>1515</v>
-      </c>
       <c r="H88" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -9760,10 +9761,10 @@
         <v>390</v>
       </c>
       <c r="F89" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H89" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -9798,13 +9799,13 @@
         <v>390</v>
       </c>
       <c r="F90" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G90" t="s">
         <v>1517</v>
       </c>
-      <c r="G90" t="s">
-        <v>1518</v>
-      </c>
       <c r="H90" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -9839,13 +9840,13 @@
         <v>390</v>
       </c>
       <c r="F91" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G91" t="s">
         <v>1519</v>
       </c>
-      <c r="G91" t="s">
-        <v>1520</v>
-      </c>
       <c r="H91" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -9880,10 +9881,10 @@
         <v>390</v>
       </c>
       <c r="F92" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H92" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -9918,13 +9919,13 @@
         <v>390</v>
       </c>
       <c r="F93" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G93" t="s">
         <v>1522</v>
       </c>
-      <c r="G93" t="s">
-        <v>1523</v>
-      </c>
       <c r="H93" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -9959,13 +9960,13 @@
         <v>390</v>
       </c>
       <c r="F94" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G94" t="s">
         <v>1522</v>
       </c>
-      <c r="G94" t="s">
-        <v>1523</v>
-      </c>
       <c r="H94" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -10000,13 +10001,13 @@
         <v>390</v>
       </c>
       <c r="F95" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G95" t="s">
         <v>1522</v>
       </c>
-      <c r="G95" t="s">
-        <v>1523</v>
-      </c>
       <c r="H95" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -10041,13 +10042,13 @@
         <v>390</v>
       </c>
       <c r="F96" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G96" t="s">
         <v>1522</v>
       </c>
-      <c r="G96" t="s">
-        <v>1523</v>
-      </c>
       <c r="H96" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -10082,10 +10083,10 @@
         <v>390</v>
       </c>
       <c r="F97" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H97" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -10120,7 +10121,7 @@
         <v>390</v>
       </c>
       <c r="H98" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -10155,13 +10156,13 @@
         <v>390</v>
       </c>
       <c r="F99" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G99" t="s">
         <v>1525</v>
       </c>
-      <c r="G99" t="s">
-        <v>1526</v>
-      </c>
       <c r="H99" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -10196,13 +10197,13 @@
         <v>517</v>
       </c>
       <c r="F100" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G100" t="s">
         <v>1527</v>
       </c>
-      <c r="G100" t="s">
-        <v>1528</v>
-      </c>
       <c r="H100" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -10228,13 +10229,13 @@
         <v>390</v>
       </c>
       <c r="F101" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G101" t="s">
         <v>1529</v>
       </c>
-      <c r="G101" t="s">
-        <v>1530</v>
-      </c>
       <c r="H101" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -10269,13 +10270,13 @@
         <v>431</v>
       </c>
       <c r="F102" t="s">
+        <v>1530</v>
+      </c>
+      <c r="G102" t="s">
         <v>1531</v>
       </c>
-      <c r="G102" t="s">
-        <v>1532</v>
-      </c>
       <c r="H102" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -10304,10 +10305,10 @@
         <v>390</v>
       </c>
       <c r="F103" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H103" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -10342,10 +10343,10 @@
         <v>390</v>
       </c>
       <c r="F104" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H104" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -10380,13 +10381,13 @@
         <v>442</v>
       </c>
       <c r="F105" t="s">
+        <v>1534</v>
+      </c>
+      <c r="G105" t="s">
         <v>1535</v>
       </c>
-      <c r="G105" t="s">
-        <v>1536</v>
-      </c>
       <c r="H105" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -10415,13 +10416,13 @@
         <v>431</v>
       </c>
       <c r="F106" t="s">
+        <v>1536</v>
+      </c>
+      <c r="G106" t="s">
         <v>1537</v>
       </c>
-      <c r="G106" t="s">
-        <v>1538</v>
-      </c>
       <c r="H106" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -10450,13 +10451,13 @@
         <v>612</v>
       </c>
       <c r="F107" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="G107" t="s">
         <v>611</v>
       </c>
       <c r="H107" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -10491,13 +10492,13 @@
         <v>442</v>
       </c>
       <c r="F108" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G108" t="s">
         <v>1540</v>
       </c>
-      <c r="G108" t="s">
-        <v>1541</v>
-      </c>
       <c r="H108" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="L108">
         <v>1</v>
@@ -10523,10 +10524,10 @@
         <v>390</v>
       </c>
       <c r="F109" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H109" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -10561,13 +10562,13 @@
         <v>390</v>
       </c>
       <c r="F110" t="s">
+        <v>1542</v>
+      </c>
+      <c r="G110" t="s">
         <v>1543</v>
       </c>
-      <c r="G110" t="s">
-        <v>1544</v>
-      </c>
       <c r="H110" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -10602,13 +10603,13 @@
         <v>390</v>
       </c>
       <c r="F111" t="s">
+        <v>1542</v>
+      </c>
+      <c r="G111" t="s">
         <v>1543</v>
       </c>
-      <c r="G111" t="s">
-        <v>1544</v>
-      </c>
       <c r="H111" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -10643,13 +10644,13 @@
         <v>431</v>
       </c>
       <c r="F112" t="s">
+        <v>1544</v>
+      </c>
+      <c r="G112" t="s">
         <v>1545</v>
       </c>
-      <c r="G112" t="s">
-        <v>1546</v>
-      </c>
       <c r="H112" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -10681,13 +10682,13 @@
         <v>390</v>
       </c>
       <c r="F113" t="s">
+        <v>1546</v>
+      </c>
+      <c r="G113" t="s">
         <v>1547</v>
       </c>
-      <c r="G113" t="s">
-        <v>1548</v>
-      </c>
       <c r="H113" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -10722,13 +10723,13 @@
         <v>442</v>
       </c>
       <c r="F114" t="s">
+        <v>1548</v>
+      </c>
+      <c r="G114" t="s">
         <v>1549</v>
       </c>
-      <c r="G114" t="s">
-        <v>1550</v>
-      </c>
       <c r="H114" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -10763,13 +10764,13 @@
         <v>390</v>
       </c>
       <c r="F115" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G115" t="s">
         <v>1551</v>
       </c>
-      <c r="G115" t="s">
-        <v>1552</v>
-      </c>
       <c r="H115" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -10804,13 +10805,13 @@
         <v>431</v>
       </c>
       <c r="F116" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G116" t="s">
         <v>1553</v>
       </c>
-      <c r="G116" t="s">
-        <v>1554</v>
-      </c>
       <c r="H116" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -10839,13 +10840,13 @@
         <v>390</v>
       </c>
       <c r="F117" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G117" t="s">
         <v>1555</v>
       </c>
-      <c r="G117" t="s">
-        <v>1556</v>
-      </c>
       <c r="H117" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -10880,13 +10881,13 @@
         <v>390</v>
       </c>
       <c r="F118" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G118" t="s">
         <v>1555</v>
       </c>
-      <c r="G118" t="s">
-        <v>1556</v>
-      </c>
       <c r="H118" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -10921,13 +10922,13 @@
         <v>442</v>
       </c>
       <c r="F119" t="s">
+        <v>1556</v>
+      </c>
+      <c r="G119" t="s">
         <v>1557</v>
       </c>
-      <c r="G119" t="s">
-        <v>1558</v>
-      </c>
       <c r="H119" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -10956,13 +10957,13 @@
         <v>442</v>
       </c>
       <c r="F120" t="s">
+        <v>1558</v>
+      </c>
+      <c r="G120" t="s">
         <v>1559</v>
       </c>
-      <c r="G120" t="s">
-        <v>1560</v>
-      </c>
       <c r="H120" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -10991,13 +10992,13 @@
         <v>442</v>
       </c>
       <c r="F121" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G121" t="s">
         <v>1561</v>
       </c>
-      <c r="G121" t="s">
-        <v>1562</v>
-      </c>
       <c r="H121" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -11029,13 +11030,13 @@
         <v>442</v>
       </c>
       <c r="F122" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G122" t="s">
         <v>1563</v>
       </c>
-      <c r="G122" t="s">
-        <v>1564</v>
-      </c>
       <c r="H122" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -11067,13 +11068,13 @@
         <v>442</v>
       </c>
       <c r="F123" t="s">
+        <v>1564</v>
+      </c>
+      <c r="G123" t="s">
         <v>1565</v>
       </c>
-      <c r="G123" t="s">
-        <v>1566</v>
-      </c>
       <c r="H123" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -11105,13 +11106,13 @@
         <v>390</v>
       </c>
       <c r="F124" t="s">
+        <v>1566</v>
+      </c>
+      <c r="G124" t="s">
         <v>1567</v>
       </c>
-      <c r="G124" t="s">
-        <v>1568</v>
-      </c>
       <c r="H124" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -11146,13 +11147,13 @@
         <v>390</v>
       </c>
       <c r="F125" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G125" t="s">
         <v>1569</v>
       </c>
-      <c r="G125" t="s">
-        <v>1570</v>
-      </c>
       <c r="H125" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -11187,13 +11188,13 @@
         <v>390</v>
       </c>
       <c r="F126" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G126" t="s">
         <v>1571</v>
       </c>
-      <c r="G126" t="s">
-        <v>1572</v>
-      </c>
       <c r="H126" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -11228,13 +11229,13 @@
         <v>390</v>
       </c>
       <c r="F127" t="s">
+        <v>1572</v>
+      </c>
+      <c r="G127" t="s">
         <v>1573</v>
       </c>
-      <c r="G127" t="s">
-        <v>1574</v>
-      </c>
       <c r="H127" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -11269,13 +11270,13 @@
         <v>442</v>
       </c>
       <c r="F128" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G128" t="s">
         <v>1575</v>
       </c>
-      <c r="G128" t="s">
-        <v>1576</v>
-      </c>
       <c r="H128" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -11310,13 +11311,13 @@
         <v>390</v>
       </c>
       <c r="F129" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G129" t="s">
         <v>1577</v>
       </c>
-      <c r="G129" t="s">
-        <v>1578</v>
-      </c>
       <c r="H129" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -11351,13 +11352,13 @@
         <v>390</v>
       </c>
       <c r="F130" t="s">
+        <v>1578</v>
+      </c>
+      <c r="G130" t="s">
         <v>1579</v>
       </c>
-      <c r="G130" t="s">
-        <v>1580</v>
-      </c>
       <c r="H130" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -11392,13 +11393,13 @@
         <v>442</v>
       </c>
       <c r="F131" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G131" t="s">
         <v>1581</v>
       </c>
-      <c r="G131" t="s">
-        <v>1582</v>
-      </c>
       <c r="H131" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -11430,10 +11431,10 @@
         <v>721</v>
       </c>
       <c r="F132" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H132" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -11462,10 +11463,10 @@
         <v>390</v>
       </c>
       <c r="F133" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H133" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="I133">
         <v>1</v>
@@ -11500,13 +11501,13 @@
         <v>390</v>
       </c>
       <c r="F134" t="s">
+        <v>1584</v>
+      </c>
+      <c r="G134" t="s">
         <v>1585</v>
       </c>
-      <c r="G134" t="s">
-        <v>1586</v>
-      </c>
       <c r="H134" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -11541,13 +11542,13 @@
         <v>431</v>
       </c>
       <c r="F135" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G135" t="s">
         <v>1587</v>
       </c>
-      <c r="G135" t="s">
-        <v>1588</v>
-      </c>
       <c r="H135" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -11576,10 +11577,10 @@
         <v>517</v>
       </c>
       <c r="F136" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H136" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="M136" t="s">
         <v>3</v>
@@ -11602,13 +11603,13 @@
         <v>517</v>
       </c>
       <c r="F137" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G137" t="s">
         <v>1590</v>
       </c>
-      <c r="G137" t="s">
-        <v>1591</v>
-      </c>
       <c r="H137" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -11637,13 +11638,13 @@
         <v>517</v>
       </c>
       <c r="F138" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G138" t="s">
         <v>1590</v>
       </c>
-      <c r="G138" t="s">
-        <v>1591</v>
-      </c>
       <c r="H138" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -11672,10 +11673,10 @@
         <v>390</v>
       </c>
       <c r="F139" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H139" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -11710,10 +11711,10 @@
         <v>390</v>
       </c>
       <c r="F140" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H140" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="I140">
         <v>1</v>
@@ -11748,10 +11749,10 @@
         <v>390</v>
       </c>
       <c r="G141" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H141" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -11786,13 +11787,13 @@
         <v>442</v>
       </c>
       <c r="F142" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G142" t="s">
         <v>1595</v>
       </c>
-      <c r="G142" t="s">
-        <v>1596</v>
-      </c>
       <c r="H142" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -11821,10 +11822,10 @@
         <v>390</v>
       </c>
       <c r="F143" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H143" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="I143">
         <v>1</v>
@@ -11859,13 +11860,13 @@
         <v>390</v>
       </c>
       <c r="F144" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G144" t="s">
         <v>1598</v>
       </c>
-      <c r="G144" t="s">
-        <v>1599</v>
-      </c>
       <c r="H144" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -11900,13 +11901,13 @@
         <v>442</v>
       </c>
       <c r="F145" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G145" t="s">
         <v>1600</v>
       </c>
-      <c r="G145" t="s">
-        <v>1601</v>
-      </c>
       <c r="H145" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -11938,13 +11939,13 @@
         <v>390</v>
       </c>
       <c r="F146" t="s">
+        <v>1601</v>
+      </c>
+      <c r="G146" t="s">
         <v>1602</v>
       </c>
-      <c r="G146" t="s">
-        <v>1603</v>
-      </c>
       <c r="H146" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I146">
         <v>1</v>
@@ -11979,13 +11980,13 @@
         <v>431</v>
       </c>
       <c r="F147" t="s">
+        <v>1603</v>
+      </c>
+      <c r="G147" t="s">
         <v>1604</v>
       </c>
-      <c r="G147" t="s">
-        <v>1605</v>
-      </c>
       <c r="H147" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -12020,13 +12021,13 @@
         <v>431</v>
       </c>
       <c r="F148" t="s">
+        <v>1603</v>
+      </c>
+      <c r="G148" t="s">
         <v>1604</v>
       </c>
-      <c r="G148" t="s">
-        <v>1605</v>
-      </c>
       <c r="H148" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -12061,13 +12062,13 @@
         <v>390</v>
       </c>
       <c r="F149" t="s">
+        <v>1605</v>
+      </c>
+      <c r="G149" t="s">
         <v>1606</v>
       </c>
-      <c r="G149" t="s">
-        <v>1607</v>
-      </c>
       <c r="H149" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="I149">
         <v>1</v>
@@ -12102,13 +12103,13 @@
         <v>390</v>
       </c>
       <c r="F150" t="s">
+        <v>1607</v>
+      </c>
+      <c r="G150" t="s">
         <v>1608</v>
       </c>
-      <c r="G150" t="s">
-        <v>1609</v>
-      </c>
       <c r="H150" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -12143,13 +12144,13 @@
         <v>390</v>
       </c>
       <c r="F151" t="s">
+        <v>1609</v>
+      </c>
+      <c r="G151" t="s">
         <v>1610</v>
       </c>
-      <c r="G151" t="s">
-        <v>1611</v>
-      </c>
       <c r="H151" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -12184,13 +12185,13 @@
         <v>390</v>
       </c>
       <c r="F152" t="s">
+        <v>1611</v>
+      </c>
+      <c r="G152" t="s">
         <v>1612</v>
       </c>
-      <c r="G152" t="s">
-        <v>1613</v>
-      </c>
       <c r="H152" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -12225,13 +12226,13 @@
         <v>390</v>
       </c>
       <c r="F153" t="s">
+        <v>1613</v>
+      </c>
+      <c r="G153" t="s">
         <v>1614</v>
       </c>
-      <c r="G153" t="s">
-        <v>1615</v>
-      </c>
       <c r="H153" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="I153">
         <v>1</v>
@@ -12266,10 +12267,10 @@
         <v>390</v>
       </c>
       <c r="F154" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H154" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -12304,13 +12305,13 @@
         <v>431</v>
       </c>
       <c r="F155" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G155" t="s">
         <v>1617</v>
       </c>
-      <c r="G155" t="s">
-        <v>1618</v>
-      </c>
       <c r="H155" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -12339,7 +12340,7 @@
         <v>390</v>
       </c>
       <c r="H156" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -12374,10 +12375,10 @@
         <v>390</v>
       </c>
       <c r="F157" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H157" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -12412,13 +12413,13 @@
         <v>390</v>
       </c>
       <c r="F158" t="s">
+        <v>1619</v>
+      </c>
+      <c r="G158" t="s">
         <v>1620</v>
       </c>
-      <c r="G158" t="s">
-        <v>1621</v>
-      </c>
       <c r="H158" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -12453,13 +12454,13 @@
         <v>390</v>
       </c>
       <c r="F159" t="s">
+        <v>1621</v>
+      </c>
+      <c r="G159" t="s">
         <v>1622</v>
       </c>
-      <c r="G159" t="s">
-        <v>1623</v>
-      </c>
       <c r="H159" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="I159">
         <v>1</v>
@@ -12494,13 +12495,13 @@
         <v>517</v>
       </c>
       <c r="F160" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G160" t="s">
         <v>1624</v>
       </c>
-      <c r="G160" t="s">
-        <v>1625</v>
-      </c>
       <c r="H160" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -12532,10 +12533,10 @@
         <v>390</v>
       </c>
       <c r="F161" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H161" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="I161">
         <v>1</v>
@@ -12570,13 +12571,13 @@
         <v>390</v>
       </c>
       <c r="F162" t="s">
+        <v>1626</v>
+      </c>
+      <c r="G162" t="s">
         <v>1627</v>
       </c>
-      <c r="G162" t="s">
-        <v>1628</v>
-      </c>
       <c r="H162" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="I162">
         <v>1</v>
@@ -12611,10 +12612,10 @@
         <v>390</v>
       </c>
       <c r="F163" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H163" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="I163">
         <v>1</v>
@@ -12649,10 +12650,10 @@
         <v>390</v>
       </c>
       <c r="F164" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H164" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="I164">
         <v>1</v>
@@ -12687,13 +12688,13 @@
         <v>390</v>
       </c>
       <c r="F165" t="s">
+        <v>1630</v>
+      </c>
+      <c r="G165" t="s">
         <v>1631</v>
       </c>
-      <c r="G165" t="s">
-        <v>1632</v>
-      </c>
       <c r="H165" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="I165">
         <v>1</v>
@@ -12728,13 +12729,13 @@
         <v>431</v>
       </c>
       <c r="F166" t="s">
+        <v>1632</v>
+      </c>
+      <c r="G166" t="s">
         <v>1633</v>
       </c>
-      <c r="G166" t="s">
-        <v>1634</v>
-      </c>
       <c r="H166" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -12763,13 +12764,13 @@
         <v>390</v>
       </c>
       <c r="F167" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G167" t="s">
         <v>1635</v>
       </c>
-      <c r="G167" t="s">
-        <v>1636</v>
-      </c>
       <c r="H167" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -12804,13 +12805,13 @@
         <v>390</v>
       </c>
       <c r="F168" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G168" t="s">
         <v>1637</v>
       </c>
-      <c r="G168" t="s">
-        <v>1638</v>
-      </c>
       <c r="H168" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="I168">
         <v>1</v>
@@ -12845,13 +12846,13 @@
         <v>390</v>
       </c>
       <c r="F169" t="s">
+        <v>1638</v>
+      </c>
+      <c r="G169" t="s">
         <v>1639</v>
       </c>
-      <c r="G169" t="s">
-        <v>1640</v>
-      </c>
       <c r="H169" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -12886,10 +12887,10 @@
         <v>390</v>
       </c>
       <c r="F170" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H170" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="I170">
         <v>1</v>
@@ -12924,13 +12925,13 @@
         <v>390</v>
       </c>
       <c r="F171" t="s">
+        <v>1641</v>
+      </c>
+      <c r="G171" t="s">
         <v>1642</v>
       </c>
-      <c r="G171" t="s">
-        <v>1643</v>
-      </c>
       <c r="H171" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -12965,13 +12966,13 @@
         <v>431</v>
       </c>
       <c r="F172" t="s">
+        <v>1643</v>
+      </c>
+      <c r="G172" t="s">
         <v>1644</v>
       </c>
-      <c r="G172" t="s">
-        <v>1645</v>
-      </c>
       <c r="H172" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -13003,13 +13004,13 @@
         <v>431</v>
       </c>
       <c r="F173" t="s">
+        <v>1645</v>
+      </c>
+      <c r="G173" t="s">
         <v>1646</v>
       </c>
-      <c r="G173" t="s">
-        <v>1647</v>
-      </c>
       <c r="H173" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -13044,10 +13045,10 @@
         <v>390</v>
       </c>
       <c r="F174" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H174" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -13082,13 +13083,13 @@
         <v>390</v>
       </c>
       <c r="F175" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G175" t="s">
         <v>1649</v>
       </c>
-      <c r="G175" t="s">
-        <v>1650</v>
-      </c>
       <c r="H175" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -13123,13 +13124,13 @@
         <v>390</v>
       </c>
       <c r="F176" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G176" t="s">
         <v>1651</v>
       </c>
-      <c r="G176" t="s">
-        <v>1652</v>
-      </c>
       <c r="H176" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -13164,10 +13165,10 @@
         <v>390</v>
       </c>
       <c r="F177" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H177" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -13202,10 +13203,10 @@
         <v>390</v>
       </c>
       <c r="F178" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H178" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -13240,10 +13241,10 @@
         <v>390</v>
       </c>
       <c r="F179" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H179" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -13278,13 +13279,13 @@
         <v>390</v>
       </c>
       <c r="F180" t="s">
+        <v>1654</v>
+      </c>
+      <c r="G180" t="s">
         <v>1655</v>
       </c>
-      <c r="G180" t="s">
-        <v>1656</v>
-      </c>
       <c r="H180" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -13319,7 +13320,7 @@
         <v>390</v>
       </c>
       <c r="H181" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -13354,13 +13355,13 @@
         <v>390</v>
       </c>
       <c r="F182" t="s">
+        <v>1656</v>
+      </c>
+      <c r="G182" t="s">
         <v>1657</v>
       </c>
-      <c r="G182" t="s">
-        <v>1658</v>
-      </c>
       <c r="H182" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I182">
         <v>1</v>
@@ -13395,13 +13396,13 @@
         <v>431</v>
       </c>
       <c r="F183" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="G183" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H183" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I183">
         <v>1</v>
@@ -13430,13 +13431,13 @@
         <v>390</v>
       </c>
       <c r="F184" t="s">
+        <v>1659</v>
+      </c>
+      <c r="G184" t="s">
         <v>1660</v>
       </c>
-      <c r="G184" t="s">
-        <v>1661</v>
-      </c>
       <c r="H184" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -13471,13 +13472,13 @@
         <v>390</v>
       </c>
       <c r="F185" t="s">
+        <v>1661</v>
+      </c>
+      <c r="G185" t="s">
         <v>1662</v>
       </c>
-      <c r="G185" t="s">
-        <v>1663</v>
-      </c>
       <c r="H185" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I185">
         <v>1</v>
@@ -13512,10 +13513,10 @@
         <v>390</v>
       </c>
       <c r="F186" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H186" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I186">
         <v>1</v>
@@ -13550,13 +13551,13 @@
         <v>390</v>
       </c>
       <c r="F187" t="s">
+        <v>1664</v>
+      </c>
+      <c r="G187" t="s">
         <v>1665</v>
       </c>
-      <c r="G187" t="s">
-        <v>1666</v>
-      </c>
       <c r="H187" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -13591,13 +13592,13 @@
         <v>431</v>
       </c>
       <c r="F188" t="s">
+        <v>1666</v>
+      </c>
+      <c r="G188" t="s">
         <v>1667</v>
       </c>
-      <c r="G188" t="s">
-        <v>1668</v>
-      </c>
       <c r="H188" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -13632,13 +13633,13 @@
         <v>390</v>
       </c>
       <c r="F189" t="s">
+        <v>1668</v>
+      </c>
+      <c r="G189" t="s">
         <v>1669</v>
       </c>
-      <c r="G189" t="s">
-        <v>1670</v>
-      </c>
       <c r="H189" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I189">
         <v>1</v>
@@ -13673,13 +13674,13 @@
         <v>390</v>
       </c>
       <c r="F190" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G190" t="s">
         <v>1671</v>
       </c>
-      <c r="G190" t="s">
-        <v>1672</v>
-      </c>
       <c r="H190" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I190">
         <v>1</v>
@@ -13714,13 +13715,13 @@
         <v>390</v>
       </c>
       <c r="F191" t="s">
+        <v>1672</v>
+      </c>
+      <c r="G191" t="s">
         <v>1673</v>
       </c>
-      <c r="G191" t="s">
-        <v>1674</v>
-      </c>
       <c r="H191" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I191">
         <v>1</v>
@@ -13755,13 +13756,13 @@
         <v>390</v>
       </c>
       <c r="F192" t="s">
+        <v>1674</v>
+      </c>
+      <c r="G192" t="s">
         <v>1675</v>
       </c>
-      <c r="G192" t="s">
-        <v>1676</v>
-      </c>
       <c r="H192" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I192">
         <v>1</v>
@@ -13796,13 +13797,13 @@
         <v>442</v>
       </c>
       <c r="F193" t="s">
+        <v>1676</v>
+      </c>
+      <c r="G193" t="s">
         <v>1677</v>
       </c>
-      <c r="G193" t="s">
-        <v>1678</v>
-      </c>
       <c r="H193" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I193">
         <v>0</v>
@@ -13834,13 +13835,13 @@
         <v>431</v>
       </c>
       <c r="F194" t="s">
+        <v>1678</v>
+      </c>
+      <c r="G194" t="s">
         <v>1679</v>
       </c>
-      <c r="G194" t="s">
-        <v>1680</v>
-      </c>
       <c r="H194" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I194">
         <v>1</v>
@@ -13869,10 +13870,10 @@
         <v>721</v>
       </c>
       <c r="F195" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H195" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -13901,10 +13902,10 @@
         <v>390</v>
       </c>
       <c r="F196" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H196" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -13939,10 +13940,10 @@
         <v>390</v>
       </c>
       <c r="F197" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H197" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I197">
         <v>1</v>
@@ -13977,13 +13978,13 @@
         <v>390</v>
       </c>
       <c r="F198" t="s">
+        <v>1683</v>
+      </c>
+      <c r="G198" t="s">
         <v>1684</v>
       </c>
-      <c r="G198" t="s">
-        <v>1685</v>
-      </c>
       <c r="H198" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I198">
         <v>1</v>
@@ -14018,10 +14019,10 @@
         <v>431</v>
       </c>
       <c r="F199" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="H199" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -14050,13 +14051,13 @@
         <v>390</v>
       </c>
       <c r="F200" t="s">
+        <v>1686</v>
+      </c>
+      <c r="G200" t="s">
         <v>1687</v>
       </c>
-      <c r="G200" t="s">
-        <v>1688</v>
-      </c>
       <c r="H200" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="I200">
         <v>1</v>
@@ -14091,10 +14092,10 @@
         <v>390</v>
       </c>
       <c r="F201" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="H201" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I201">
         <v>1</v>
@@ -14129,13 +14130,13 @@
         <v>390</v>
       </c>
       <c r="F202" t="s">
+        <v>1689</v>
+      </c>
+      <c r="G202" t="s">
         <v>1690</v>
       </c>
-      <c r="G202" t="s">
-        <v>1691</v>
-      </c>
       <c r="H202" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I202">
         <v>1</v>
@@ -14170,10 +14171,10 @@
         <v>390</v>
       </c>
       <c r="F203" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="H203" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -14208,10 +14209,10 @@
         <v>390</v>
       </c>
       <c r="F204" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H204" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I204">
         <v>1</v>
@@ -14246,10 +14247,10 @@
         <v>390</v>
       </c>
       <c r="F205" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="H205" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I205">
         <v>1</v>
@@ -14284,13 +14285,13 @@
         <v>431</v>
       </c>
       <c r="F206" t="s">
+        <v>1694</v>
+      </c>
+      <c r="G206" t="s">
         <v>1695</v>
       </c>
-      <c r="G206" t="s">
-        <v>1696</v>
-      </c>
       <c r="H206" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -14322,13 +14323,13 @@
         <v>431</v>
       </c>
       <c r="F207" t="s">
+        <v>1696</v>
+      </c>
+      <c r="G207" t="s">
         <v>1697</v>
       </c>
-      <c r="G207" t="s">
-        <v>1698</v>
-      </c>
       <c r="H207" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I207">
         <v>0</v>
@@ -14363,13 +14364,13 @@
         <v>390</v>
       </c>
       <c r="F208" t="s">
+        <v>1698</v>
+      </c>
+      <c r="G208" t="s">
         <v>1699</v>
       </c>
-      <c r="G208" t="s">
-        <v>1700</v>
-      </c>
       <c r="H208" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="I208">
         <v>1</v>
@@ -14404,10 +14405,10 @@
         <v>390</v>
       </c>
       <c r="F209" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="H209" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I209">
         <v>1</v>
@@ -14442,10 +14443,10 @@
         <v>390</v>
       </c>
       <c r="F210" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="H210" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I210">
         <v>1</v>
@@ -14480,13 +14481,13 @@
         <v>390</v>
       </c>
       <c r="F211" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G211" t="s">
         <v>1703</v>
       </c>
-      <c r="G211" t="s">
-        <v>1704</v>
-      </c>
       <c r="H211" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I211">
         <v>1</v>
@@ -14521,13 +14522,13 @@
         <v>390</v>
       </c>
       <c r="F212" t="s">
+        <v>1704</v>
+      </c>
+      <c r="G212" t="s">
         <v>1705</v>
       </c>
-      <c r="G212" t="s">
-        <v>1706</v>
-      </c>
       <c r="H212" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -14562,10 +14563,10 @@
         <v>390</v>
       </c>
       <c r="F213" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H213" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I213">
         <v>1</v>
@@ -14600,13 +14601,13 @@
         <v>390</v>
       </c>
       <c r="F214" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G214" t="s">
         <v>1708</v>
       </c>
-      <c r="G214" t="s">
-        <v>1709</v>
-      </c>
       <c r="H214" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -14641,13 +14642,13 @@
         <v>390</v>
       </c>
       <c r="F215" t="s">
+        <v>1709</v>
+      </c>
+      <c r="G215" t="s">
         <v>1710</v>
       </c>
-      <c r="G215" t="s">
-        <v>1711</v>
-      </c>
       <c r="H215" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I215">
         <v>0</v>
@@ -14682,10 +14683,10 @@
         <v>390</v>
       </c>
       <c r="F216" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="H216" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I216">
         <v>1</v>
@@ -14720,10 +14721,10 @@
         <v>390</v>
       </c>
       <c r="F217" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="H217" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I217">
         <v>1</v>
@@ -14758,13 +14759,13 @@
         <v>442</v>
       </c>
       <c r="F218" t="s">
+        <v>1713</v>
+      </c>
+      <c r="G218" t="s">
         <v>1714</v>
       </c>
-      <c r="G218" t="s">
-        <v>1715</v>
-      </c>
       <c r="H218" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I218">
         <v>0</v>
@@ -14799,13 +14800,13 @@
         <v>390</v>
       </c>
       <c r="F219" t="s">
+        <v>1715</v>
+      </c>
+      <c r="G219" t="s">
         <v>1716</v>
       </c>
-      <c r="G219" t="s">
-        <v>1717</v>
-      </c>
       <c r="H219" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="I219">
         <v>1</v>
@@ -14840,13 +14841,13 @@
         <v>390</v>
       </c>
       <c r="F220" t="s">
+        <v>1717</v>
+      </c>
+      <c r="G220" t="s">
         <v>1718</v>
       </c>
-      <c r="G220" t="s">
-        <v>1719</v>
-      </c>
       <c r="H220" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="I220">
         <v>1</v>
@@ -14881,13 +14882,13 @@
         <v>390</v>
       </c>
       <c r="F221" t="s">
+        <v>1719</v>
+      </c>
+      <c r="G221" t="s">
         <v>1720</v>
       </c>
-      <c r="G221" t="s">
-        <v>1721</v>
-      </c>
       <c r="H221" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I221">
         <v>1</v>
@@ -14922,13 +14923,13 @@
         <v>390</v>
       </c>
       <c r="F222" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G222" t="s">
         <v>1722</v>
       </c>
-      <c r="G222" t="s">
-        <v>1723</v>
-      </c>
       <c r="H222" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I222">
         <v>1</v>
@@ -14963,13 +14964,13 @@
         <v>431</v>
       </c>
       <c r="F223" t="s">
+        <v>1723</v>
+      </c>
+      <c r="G223" t="s">
         <v>1724</v>
       </c>
-      <c r="G223" t="s">
-        <v>1725</v>
-      </c>
       <c r="H223" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -14998,13 +14999,13 @@
         <v>390</v>
       </c>
       <c r="F224" t="s">
+        <v>1725</v>
+      </c>
+      <c r="G224" t="s">
         <v>1726</v>
       </c>
-      <c r="G224" t="s">
-        <v>1727</v>
-      </c>
       <c r="H224" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="I224">
         <v>1</v>
@@ -15039,10 +15040,10 @@
         <v>390</v>
       </c>
       <c r="F225" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="H225" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I225">
         <v>1</v>
@@ -15077,10 +15078,10 @@
         <v>390</v>
       </c>
       <c r="F226" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="H226" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I226">
         <v>1</v>
@@ -15115,13 +15116,13 @@
         <v>390</v>
       </c>
       <c r="F227" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G227" t="s">
         <v>1730</v>
       </c>
-      <c r="G227" t="s">
-        <v>1731</v>
-      </c>
       <c r="H227" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I227">
         <v>0</v>
@@ -15156,13 +15157,13 @@
         <v>390</v>
       </c>
       <c r="F228" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G228" t="s">
         <v>1732</v>
       </c>
-      <c r="G228" t="s">
-        <v>1733</v>
-      </c>
       <c r="H228" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -15197,10 +15198,10 @@
         <v>390</v>
       </c>
       <c r="F229" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="H229" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I229">
         <v>0</v>
@@ -15235,13 +15236,13 @@
         <v>431</v>
       </c>
       <c r="F230" t="s">
+        <v>1734</v>
+      </c>
+      <c r="G230" t="s">
         <v>1735</v>
       </c>
-      <c r="G230" t="s">
-        <v>1736</v>
-      </c>
       <c r="H230" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="I230">
         <v>0</v>
@@ -15276,13 +15277,13 @@
         <v>390</v>
       </c>
       <c r="F231" t="s">
+        <v>1736</v>
+      </c>
+      <c r="G231" t="s">
         <v>1737</v>
       </c>
-      <c r="G231" t="s">
-        <v>1738</v>
-      </c>
       <c r="H231" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I231">
         <v>0</v>
@@ -15317,13 +15318,13 @@
         <v>390</v>
       </c>
       <c r="F232" t="s">
+        <v>1738</v>
+      </c>
+      <c r="G232" t="s">
         <v>1739</v>
       </c>
-      <c r="G232" t="s">
-        <v>1740</v>
-      </c>
       <c r="H232" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I232">
         <v>0</v>
@@ -15358,7 +15359,7 @@
         <v>390</v>
       </c>
       <c r="H233" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I233">
         <v>0</v>
@@ -15393,13 +15394,13 @@
         <v>390</v>
       </c>
       <c r="F234" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G234" t="s">
         <v>1741</v>
       </c>
-      <c r="G234" t="s">
-        <v>1742</v>
-      </c>
       <c r="H234" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I234">
         <v>1</v>
@@ -15434,10 +15435,10 @@
         <v>390</v>
       </c>
       <c r="F235" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="H235" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I235">
         <v>0</v>
@@ -15472,13 +15473,13 @@
         <v>390</v>
       </c>
       <c r="F236" t="s">
+        <v>1743</v>
+      </c>
+      <c r="G236" t="s">
         <v>1744</v>
       </c>
-      <c r="G236" t="s">
-        <v>1745</v>
-      </c>
       <c r="H236" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="I236">
         <v>1</v>
@@ -15513,10 +15514,10 @@
         <v>390</v>
       </c>
       <c r="F237" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="H237" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I237">
         <v>1</v>
@@ -15551,10 +15552,10 @@
         <v>390</v>
       </c>
       <c r="F238" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="H238" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I238">
         <v>1</v>
@@ -15589,13 +15590,13 @@
         <v>390</v>
       </c>
       <c r="F239" t="s">
+        <v>1747</v>
+      </c>
+      <c r="G239" t="s">
         <v>1748</v>
       </c>
-      <c r="G239" t="s">
-        <v>1749</v>
-      </c>
       <c r="H239" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I239">
         <v>0</v>
@@ -15630,10 +15631,10 @@
         <v>390</v>
       </c>
       <c r="F240" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H240" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I240">
         <v>1</v>
@@ -15668,10 +15669,10 @@
         <v>390</v>
       </c>
       <c r="F241" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="H241" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I241">
         <v>1</v>
@@ -15706,13 +15707,13 @@
         <v>390</v>
       </c>
       <c r="F242" t="s">
+        <v>1751</v>
+      </c>
+      <c r="G242" t="s">
         <v>1752</v>
       </c>
-      <c r="G242" t="s">
-        <v>1753</v>
-      </c>
       <c r="H242" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I242">
         <v>0</v>
@@ -15747,7 +15748,7 @@
         <v>390</v>
       </c>
       <c r="H243" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I243">
         <v>0</v>
@@ -15782,13 +15783,13 @@
         <v>612</v>
       </c>
       <c r="F244" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G244" t="s">
         <v>1754</v>
       </c>
-      <c r="G244" t="s">
-        <v>1755</v>
-      </c>
       <c r="H244" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I244">
         <v>0</v>
@@ -15817,7 +15818,7 @@
         <v>390</v>
       </c>
       <c r="H245" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I245">
         <v>1</v>
@@ -15852,13 +15853,13 @@
         <v>729</v>
       </c>
       <c r="F246" t="s">
+        <v>1755</v>
+      </c>
+      <c r="G246" t="s">
         <v>1756</v>
       </c>
-      <c r="G246" t="s">
-        <v>1757</v>
-      </c>
       <c r="H246" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="I246">
         <v>1</v>
@@ -15884,13 +15885,13 @@
         <v>390</v>
       </c>
       <c r="F247" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G247" t="s">
         <v>1758</v>
       </c>
-      <c r="G247" t="s">
-        <v>1759</v>
-      </c>
       <c r="H247" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="I247">
         <v>0</v>
@@ -15925,13 +15926,13 @@
         <v>390</v>
       </c>
       <c r="F248" t="s">
+        <v>1759</v>
+      </c>
+      <c r="G248" t="s">
         <v>1760</v>
       </c>
-      <c r="G248" t="s">
-        <v>1761</v>
-      </c>
       <c r="H248" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -15966,13 +15967,13 @@
         <v>390</v>
       </c>
       <c r="F249" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G249" t="s">
         <v>1762</v>
       </c>
-      <c r="G249" t="s">
-        <v>1763</v>
-      </c>
       <c r="H249" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -16007,13 +16008,13 @@
         <v>390</v>
       </c>
       <c r="F250" t="s">
+        <v>1763</v>
+      </c>
+      <c r="G250" t="s">
         <v>1764</v>
       </c>
-      <c r="G250" t="s">
-        <v>1765</v>
-      </c>
       <c r="H250" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I250">
         <v>1</v>
@@ -16048,7 +16049,7 @@
         <v>390</v>
       </c>
       <c r="H251" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="I251">
         <v>0</v>
@@ -16083,7 +16084,7 @@
         <v>390</v>
       </c>
       <c r="H252" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="I252">
         <v>0</v>
@@ -16118,13 +16119,13 @@
         <v>685</v>
       </c>
       <c r="F253" t="s">
+        <v>1765</v>
+      </c>
+      <c r="G253" t="s">
         <v>1766</v>
       </c>
-      <c r="G253" t="s">
-        <v>1767</v>
-      </c>
       <c r="H253" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="I253">
         <v>1</v>
@@ -16159,13 +16160,13 @@
         <v>431</v>
       </c>
       <c r="F254" t="s">
+        <v>1767</v>
+      </c>
+      <c r="G254" t="s">
         <v>1768</v>
       </c>
-      <c r="G254" t="s">
-        <v>1769</v>
-      </c>
       <c r="H254" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I254">
         <v>1</v>
@@ -16194,13 +16195,13 @@
         <v>442</v>
       </c>
       <c r="F255" t="s">
+        <v>1769</v>
+      </c>
+      <c r="G255" t="s">
         <v>1770</v>
       </c>
-      <c r="G255" t="s">
-        <v>1771</v>
-      </c>
       <c r="H255" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I255">
         <v>0</v>
@@ -16232,13 +16233,13 @@
         <v>390</v>
       </c>
       <c r="F256" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G256" t="s">
         <v>1772</v>
       </c>
-      <c r="G256" t="s">
-        <v>1773</v>
-      </c>
       <c r="H256" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I256">
         <v>1</v>
@@ -16273,13 +16274,13 @@
         <v>390</v>
       </c>
       <c r="F257" t="s">
+        <v>1773</v>
+      </c>
+      <c r="G257" t="s">
         <v>1774</v>
       </c>
-      <c r="G257" t="s">
-        <v>1775</v>
-      </c>
       <c r="H257" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I257">
         <v>1</v>
@@ -16314,10 +16315,10 @@
         <v>390</v>
       </c>
       <c r="G258" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H258" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I258">
         <v>1</v>
@@ -16352,10 +16353,10 @@
         <v>390</v>
       </c>
       <c r="G259" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="H259" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="I259">
         <v>1</v>
@@ -16390,13 +16391,13 @@
         <v>431</v>
       </c>
       <c r="F260" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G260" t="s">
         <v>1778</v>
       </c>
-      <c r="G260" t="s">
-        <v>1779</v>
-      </c>
       <c r="H260" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I260">
         <v>0</v>
@@ -16425,13 +16426,13 @@
         <v>390</v>
       </c>
       <c r="F261" t="s">
+        <v>1779</v>
+      </c>
+      <c r="G261" t="s">
         <v>1780</v>
       </c>
-      <c r="G261" t="s">
-        <v>1781</v>
-      </c>
       <c r="H261" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I261">
         <v>0</v>
@@ -16466,13 +16467,13 @@
         <v>431</v>
       </c>
       <c r="F262" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G262" t="s">
         <v>1782</v>
       </c>
-      <c r="G262" t="s">
-        <v>1783</v>
-      </c>
       <c r="H262" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I262">
         <v>0</v>
@@ -16507,13 +16508,13 @@
         <v>431</v>
       </c>
       <c r="F263" t="s">
+        <v>1783</v>
+      </c>
+      <c r="G263" t="s">
         <v>1784</v>
       </c>
-      <c r="G263" t="s">
-        <v>1785</v>
-      </c>
       <c r="H263" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="I263">
         <v>0</v>
@@ -16548,10 +16549,10 @@
         <v>390</v>
       </c>
       <c r="F264" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="H264" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I264">
         <v>1</v>
@@ -16586,13 +16587,13 @@
         <v>442</v>
       </c>
       <c r="F265" t="s">
+        <v>1786</v>
+      </c>
+      <c r="G265" t="s">
         <v>1787</v>
       </c>
-      <c r="G265" t="s">
-        <v>1788</v>
-      </c>
       <c r="H265" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I265">
         <v>1</v>
@@ -16621,13 +16622,13 @@
         <v>390</v>
       </c>
       <c r="F266" t="s">
+        <v>1788</v>
+      </c>
+      <c r="G266" t="s">
         <v>1789</v>
       </c>
-      <c r="G266" t="s">
-        <v>1790</v>
-      </c>
       <c r="H266" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I266">
         <v>0</v>
@@ -16662,13 +16663,13 @@
         <v>390</v>
       </c>
       <c r="F267" t="s">
+        <v>1790</v>
+      </c>
+      <c r="G267" t="s">
         <v>1791</v>
       </c>
-      <c r="G267" t="s">
-        <v>1792</v>
-      </c>
       <c r="H267" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="I267">
         <v>1</v>
@@ -16703,13 +16704,13 @@
         <v>390</v>
       </c>
       <c r="F268" t="s">
+        <v>1792</v>
+      </c>
+      <c r="G268" t="s">
         <v>1793</v>
       </c>
-      <c r="G268" t="s">
-        <v>1794</v>
-      </c>
       <c r="H268" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I268">
         <v>0</v>
@@ -16744,13 +16745,13 @@
         <v>390</v>
       </c>
       <c r="F269" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G269" t="s">
         <v>1795</v>
       </c>
-      <c r="G269" t="s">
-        <v>1796</v>
-      </c>
       <c r="H269" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I269">
         <v>0</v>
@@ -16785,13 +16786,13 @@
         <v>442</v>
       </c>
       <c r="F270" t="s">
+        <v>1796</v>
+      </c>
+      <c r="G270" t="s">
         <v>1797</v>
       </c>
-      <c r="G270" t="s">
-        <v>1798</v>
-      </c>
       <c r="H270" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="I270">
         <v>0</v>
@@ -16820,13 +16821,13 @@
         <v>390</v>
       </c>
       <c r="F271" t="s">
+        <v>1798</v>
+      </c>
+      <c r="G271" t="s">
         <v>1799</v>
       </c>
-      <c r="G271" t="s">
-        <v>1800</v>
-      </c>
       <c r="H271" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="I271">
         <v>1</v>
@@ -16861,10 +16862,10 @@
         <v>390</v>
       </c>
       <c r="F272" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="H272" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I272">
         <v>1</v>
@@ -16899,7 +16900,7 @@
         <v>390</v>
       </c>
       <c r="H273" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I273">
         <v>0</v>
@@ -16934,13 +16935,13 @@
         <v>442</v>
       </c>
       <c r="F274" t="s">
+        <v>1801</v>
+      </c>
+      <c r="G274" t="s">
         <v>1802</v>
       </c>
-      <c r="G274" t="s">
-        <v>1803</v>
-      </c>
       <c r="H274" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I274">
         <v>0</v>
@@ -16969,13 +16970,13 @@
         <v>480</v>
       </c>
       <c r="F275" t="s">
+        <v>1803</v>
+      </c>
+      <c r="G275" t="s">
         <v>1804</v>
       </c>
-      <c r="G275" t="s">
-        <v>1805</v>
-      </c>
       <c r="H275" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I275">
         <v>1</v>
@@ -17010,10 +17011,10 @@
         <v>390</v>
       </c>
       <c r="F276" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="H276" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I276">
         <v>1</v>
@@ -17048,10 +17049,10 @@
         <v>390</v>
       </c>
       <c r="F277" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="H277" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I277">
         <v>1</v>
@@ -17086,13 +17087,13 @@
         <v>442</v>
       </c>
       <c r="F278" t="s">
+        <v>1807</v>
+      </c>
+      <c r="G278" t="s">
         <v>1808</v>
       </c>
-      <c r="G278" t="s">
-        <v>1809</v>
-      </c>
       <c r="H278" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I278">
         <v>0</v>
@@ -17121,13 +17122,13 @@
         <v>390</v>
       </c>
       <c r="F279" t="s">
+        <v>1809</v>
+      </c>
+      <c r="G279" t="s">
         <v>1810</v>
       </c>
-      <c r="G279" t="s">
-        <v>1811</v>
-      </c>
       <c r="H279" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I279">
         <v>1</v>
@@ -17162,13 +17163,13 @@
         <v>390</v>
       </c>
       <c r="F280" t="s">
+        <v>1811</v>
+      </c>
+      <c r="G280" t="s">
         <v>1812</v>
       </c>
-      <c r="G280" t="s">
-        <v>1813</v>
-      </c>
       <c r="H280" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I280">
         <v>0</v>
@@ -17203,13 +17204,13 @@
         <v>390</v>
       </c>
       <c r="F281" t="s">
+        <v>1811</v>
+      </c>
+      <c r="G281" t="s">
         <v>1812</v>
       </c>
-      <c r="G281" t="s">
-        <v>1813</v>
-      </c>
       <c r="H281" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I281">
         <v>0</v>
@@ -17244,13 +17245,13 @@
         <v>721</v>
       </c>
       <c r="F282" t="s">
+        <v>1813</v>
+      </c>
+      <c r="G282" t="s">
         <v>1814</v>
       </c>
-      <c r="G282" t="s">
-        <v>1815</v>
-      </c>
       <c r="H282" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I282">
         <v>0</v>
@@ -17285,13 +17286,13 @@
         <v>431</v>
       </c>
       <c r="F283" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G283" t="s">
         <v>1816</v>
       </c>
-      <c r="G283" t="s">
-        <v>1817</v>
-      </c>
       <c r="H283" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="I283">
         <v>0</v>
@@ -17326,13 +17327,13 @@
         <v>390</v>
       </c>
       <c r="F284" t="s">
+        <v>1817</v>
+      </c>
+      <c r="G284" t="s">
         <v>1818</v>
       </c>
-      <c r="G284" t="s">
-        <v>1819</v>
-      </c>
       <c r="H284" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I284">
         <v>1</v>
@@ -17367,13 +17368,13 @@
         <v>390</v>
       </c>
       <c r="F285" t="s">
+        <v>1819</v>
+      </c>
+      <c r="G285" t="s">
         <v>1820</v>
       </c>
-      <c r="G285" t="s">
-        <v>1821</v>
-      </c>
       <c r="H285" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="I285">
         <v>1</v>
@@ -17408,13 +17409,13 @@
         <v>390</v>
       </c>
       <c r="F286" t="s">
+        <v>1821</v>
+      </c>
+      <c r="G286" t="s">
         <v>1822</v>
       </c>
-      <c r="G286" t="s">
-        <v>1823</v>
-      </c>
       <c r="H286" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="I286">
         <v>0</v>
@@ -17449,10 +17450,10 @@
         <v>721</v>
       </c>
       <c r="F287" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="H287" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="I287">
         <v>0</v>
@@ -17481,13 +17482,13 @@
         <v>431</v>
       </c>
       <c r="F288" t="s">
+        <v>1824</v>
+      </c>
+      <c r="G288" t="s">
         <v>1825</v>
       </c>
-      <c r="G288" t="s">
-        <v>1826</v>
-      </c>
       <c r="H288" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="I288">
         <v>0</v>
@@ -17522,10 +17523,10 @@
         <v>390</v>
       </c>
       <c r="F289" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="H289" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="I289">
         <v>1</v>
@@ -17560,13 +17561,13 @@
         <v>431</v>
       </c>
       <c r="F290" t="s">
+        <v>1827</v>
+      </c>
+      <c r="G290" t="s">
         <v>1828</v>
       </c>
-      <c r="G290" t="s">
-        <v>1829</v>
-      </c>
       <c r="H290" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I290">
         <v>0</v>
@@ -17595,10 +17596,10 @@
         <v>390</v>
       </c>
       <c r="F291" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="H291" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I291">
         <v>1</v>
@@ -17633,13 +17634,13 @@
         <v>390</v>
       </c>
       <c r="F292" t="s">
+        <v>1830</v>
+      </c>
+      <c r="G292" t="s">
         <v>1831</v>
       </c>
-      <c r="G292" t="s">
-        <v>1832</v>
-      </c>
       <c r="H292" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I292">
         <v>1</v>
@@ -17674,13 +17675,13 @@
         <v>390</v>
       </c>
       <c r="F293" t="s">
+        <v>1830</v>
+      </c>
+      <c r="G293" t="s">
         <v>1831</v>
       </c>
-      <c r="G293" t="s">
-        <v>1832</v>
-      </c>
       <c r="H293" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I293">
         <v>1</v>
@@ -17715,13 +17716,13 @@
         <v>390</v>
       </c>
       <c r="F294" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G294" t="s">
         <v>1833</v>
       </c>
-      <c r="G294" t="s">
-        <v>1834</v>
-      </c>
       <c r="H294" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="I294">
         <v>1</v>
@@ -17756,13 +17757,13 @@
         <v>390</v>
       </c>
       <c r="F295" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G295" t="s">
         <v>1835</v>
       </c>
-      <c r="G295" t="s">
-        <v>1836</v>
-      </c>
       <c r="H295" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I295">
         <v>1</v>
@@ -17797,13 +17798,13 @@
         <v>390</v>
       </c>
       <c r="F296" t="s">
+        <v>1836</v>
+      </c>
+      <c r="G296" t="s">
         <v>1837</v>
       </c>
-      <c r="G296" t="s">
-        <v>1838</v>
-      </c>
       <c r="H296" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I296">
         <v>0</v>
@@ -17838,13 +17839,13 @@
         <v>390</v>
       </c>
       <c r="F297" t="s">
+        <v>1838</v>
+      </c>
+      <c r="G297" t="s">
         <v>1839</v>
       </c>
-      <c r="G297" t="s">
-        <v>1840</v>
-      </c>
       <c r="H297" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="I297">
         <v>1</v>
@@ -17879,10 +17880,10 @@
         <v>390</v>
       </c>
       <c r="F298" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="H298" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="I298">
         <v>1</v>
@@ -17917,13 +17918,13 @@
         <v>390</v>
       </c>
       <c r="F299" t="s">
+        <v>1841</v>
+      </c>
+      <c r="G299" t="s">
         <v>1842</v>
       </c>
-      <c r="G299" t="s">
-        <v>1843</v>
-      </c>
       <c r="H299" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="I299">
         <v>1</v>
@@ -17958,13 +17959,13 @@
         <v>431</v>
       </c>
       <c r="F300" t="s">
+        <v>1843</v>
+      </c>
+      <c r="G300" t="s">
         <v>1844</v>
       </c>
-      <c r="G300" t="s">
-        <v>1845</v>
-      </c>
       <c r="H300" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="I300">
         <v>0</v>
@@ -17993,13 +17994,13 @@
         <v>431</v>
       </c>
       <c r="F301" t="s">
+        <v>1845</v>
+      </c>
+      <c r="G301" t="s">
         <v>1846</v>
       </c>
-      <c r="G301" t="s">
-        <v>1847</v>
-      </c>
       <c r="H301" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I301">
         <v>0</v>
@@ -18028,13 +18029,13 @@
         <v>390</v>
       </c>
       <c r="F302" t="s">
+        <v>1847</v>
+      </c>
+      <c r="G302" t="s">
         <v>1848</v>
       </c>
-      <c r="G302" t="s">
-        <v>1849</v>
-      </c>
       <c r="H302" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I302">
         <v>0</v>
@@ -18069,13 +18070,13 @@
         <v>390</v>
       </c>
       <c r="F303" t="s">
+        <v>1849</v>
+      </c>
+      <c r="G303" t="s">
         <v>1850</v>
       </c>
-      <c r="G303" t="s">
-        <v>1851</v>
-      </c>
       <c r="H303" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="I303">
         <v>1</v>
@@ -18110,10 +18111,10 @@
         <v>390</v>
       </c>
       <c r="F304" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="H304" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="I304">
         <v>1</v>
@@ -18148,7 +18149,7 @@
         <v>390</v>
       </c>
       <c r="H305" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I305">
         <v>1</v>
@@ -18183,10 +18184,10 @@
         <v>390</v>
       </c>
       <c r="F306" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="H306" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="I306">
         <v>1</v>
@@ -18221,10 +18222,10 @@
         <v>390</v>
       </c>
       <c r="F307" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="H307" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="I307">
         <v>1</v>
@@ -18259,13 +18260,13 @@
         <v>390</v>
       </c>
       <c r="F308" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G308" t="s">
         <v>1855</v>
       </c>
-      <c r="G308" t="s">
-        <v>1856</v>
-      </c>
       <c r="H308" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I308">
         <v>1</v>
@@ -18300,7 +18301,7 @@
         <v>390</v>
       </c>
       <c r="H309" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I309">
         <v>1</v>
@@ -18335,13 +18336,13 @@
         <v>390</v>
       </c>
       <c r="F310" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G310" t="s">
         <v>1857</v>
       </c>
-      <c r="G310" t="s">
-        <v>1858</v>
-      </c>
       <c r="H310" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="I310">
         <v>1</v>
@@ -18376,10 +18377,10 @@
         <v>390</v>
       </c>
       <c r="F311" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="H311" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I311">
         <v>1</v>
@@ -18414,10 +18415,10 @@
         <v>390</v>
       </c>
       <c r="F312" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="H312" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="I312">
         <v>1</v>
@@ -18452,10 +18453,10 @@
         <v>390</v>
       </c>
       <c r="F313" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="H313" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="I313">
         <v>1</v>
@@ -18490,13 +18491,13 @@
         <v>390</v>
       </c>
       <c r="F314" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G314" t="s">
         <v>1862</v>
       </c>
-      <c r="G314" t="s">
-        <v>1863</v>
-      </c>
       <c r="H314" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I314">
         <v>1</v>
@@ -18531,13 +18532,13 @@
         <v>390</v>
       </c>
       <c r="F315" t="s">
+        <v>1863</v>
+      </c>
+      <c r="G315" t="s">
         <v>1864</v>
       </c>
-      <c r="G315" t="s">
-        <v>1865</v>
-      </c>
       <c r="H315" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I315">
         <v>1</v>
@@ -18572,13 +18573,13 @@
         <v>390</v>
       </c>
       <c r="F316" t="s">
+        <v>1865</v>
+      </c>
+      <c r="G316" t="s">
         <v>1866</v>
       </c>
-      <c r="G316" t="s">
-        <v>1867</v>
-      </c>
       <c r="H316" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I316">
         <v>1</v>
@@ -18613,10 +18614,10 @@
         <v>390</v>
       </c>
       <c r="F317" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="H317" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="I317">
         <v>1</v>
@@ -18651,10 +18652,10 @@
         <v>390</v>
       </c>
       <c r="F318" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="H318" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="I318">
         <v>1</v>
@@ -18689,13 +18690,13 @@
         <v>390</v>
       </c>
       <c r="F319" t="s">
+        <v>1869</v>
+      </c>
+      <c r="G319" t="s">
         <v>1870</v>
       </c>
-      <c r="G319" t="s">
-        <v>1871</v>
-      </c>
       <c r="H319" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I319">
         <v>0</v>
@@ -18730,7 +18731,7 @@
         <v>390</v>
       </c>
       <c r="H320" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I320">
         <v>0</v>
@@ -18765,7 +18766,7 @@
         <v>390</v>
       </c>
       <c r="H321" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I321">
         <v>0</v>
@@ -18800,10 +18801,10 @@
         <v>390</v>
       </c>
       <c r="F322" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="H322" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I322">
         <v>0</v>
@@ -18838,7 +18839,7 @@
         <v>390</v>
       </c>
       <c r="H323" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I323">
         <v>0</v>
@@ -18873,13 +18874,13 @@
         <v>390</v>
       </c>
       <c r="F324" t="s">
+        <v>1872</v>
+      </c>
+      <c r="G324" t="s">
         <v>1873</v>
       </c>
-      <c r="G324" t="s">
-        <v>1874</v>
-      </c>
       <c r="H324" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I324">
         <v>1</v>
@@ -18914,13 +18915,13 @@
         <v>390</v>
       </c>
       <c r="F325" t="s">
+        <v>1874</v>
+      </c>
+      <c r="G325" t="s">
         <v>1875</v>
       </c>
-      <c r="G325" t="s">
-        <v>1876</v>
-      </c>
       <c r="H325" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I325">
         <v>1</v>
@@ -18955,13 +18956,13 @@
         <v>390</v>
       </c>
       <c r="F326" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G326" t="s">
         <v>1877</v>
       </c>
-      <c r="G326" t="s">
-        <v>1878</v>
-      </c>
       <c r="H326" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I326">
         <v>1</v>
@@ -18996,10 +18997,10 @@
         <v>390</v>
       </c>
       <c r="F327" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="H327" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I327">
         <v>0</v>
@@ -19034,10 +19035,10 @@
         <v>390</v>
       </c>
       <c r="F328" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="H328" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I328">
         <v>1</v>
@@ -19072,13 +19073,13 @@
         <v>442</v>
       </c>
       <c r="F329" t="s">
+        <v>1880</v>
+      </c>
+      <c r="G329" t="s">
         <v>1881</v>
       </c>
-      <c r="G329" t="s">
-        <v>1882</v>
-      </c>
       <c r="H329" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I329">
         <v>1</v>
@@ -19107,13 +19108,13 @@
         <v>442</v>
       </c>
       <c r="F330" t="s">
+        <v>1882</v>
+      </c>
+      <c r="G330" t="s">
         <v>1883</v>
       </c>
-      <c r="G330" t="s">
-        <v>1884</v>
-      </c>
       <c r="H330" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I330">
         <v>0</v>
@@ -19148,13 +19149,13 @@
         <v>442</v>
       </c>
       <c r="F331" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="G331" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="H331" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="M331" t="s">
         <v>3</v>
@@ -19177,10 +19178,10 @@
         <v>390</v>
       </c>
       <c r="F332" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="H332" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I332">
         <v>1</v>
@@ -19215,13 +19216,13 @@
         <v>442</v>
       </c>
       <c r="F333" t="s">
+        <v>1886</v>
+      </c>
+      <c r="G333" t="s">
         <v>1887</v>
       </c>
-      <c r="G333" t="s">
-        <v>1888</v>
-      </c>
       <c r="H333" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I333">
         <v>0</v>
@@ -19256,13 +19257,13 @@
         <v>442</v>
       </c>
       <c r="F334" t="s">
+        <v>1888</v>
+      </c>
+      <c r="G334" t="s">
         <v>1889</v>
       </c>
-      <c r="G334" t="s">
-        <v>1890</v>
-      </c>
       <c r="H334" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I334">
         <v>0</v>
@@ -19297,13 +19298,13 @@
         <v>390</v>
       </c>
       <c r="F335" t="s">
+        <v>1890</v>
+      </c>
+      <c r="G335" t="s">
         <v>1891</v>
       </c>
-      <c r="G335" t="s">
-        <v>1892</v>
-      </c>
       <c r="H335" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I335">
         <v>1</v>
@@ -19338,7 +19339,7 @@
         <v>742</v>
       </c>
       <c r="H336" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I336">
         <v>0</v>
@@ -19373,13 +19374,13 @@
         <v>390</v>
       </c>
       <c r="F337" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G337" t="s">
         <v>1893</v>
       </c>
-      <c r="G337" t="s">
-        <v>1894</v>
-      </c>
       <c r="H337" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I337">
         <v>1</v>
@@ -19414,13 +19415,13 @@
         <v>390</v>
       </c>
       <c r="F338" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G338" t="s">
         <v>1893</v>
       </c>
-      <c r="G338" t="s">
-        <v>1894</v>
-      </c>
       <c r="H338" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I338">
         <v>1</v>
@@ -19455,13 +19456,13 @@
         <v>431</v>
       </c>
       <c r="F339" t="s">
+        <v>1894</v>
+      </c>
+      <c r="G339" t="s">
         <v>1895</v>
       </c>
-      <c r="G339" t="s">
-        <v>1896</v>
-      </c>
       <c r="H339" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="I339">
         <v>0</v>
@@ -19490,13 +19491,13 @@
         <v>390</v>
       </c>
       <c r="F340" t="s">
+        <v>1896</v>
+      </c>
+      <c r="G340" t="s">
         <v>1897</v>
       </c>
-      <c r="G340" t="s">
-        <v>1898</v>
-      </c>
       <c r="H340" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I340">
         <v>0</v>
@@ -19531,13 +19532,13 @@
         <v>442</v>
       </c>
       <c r="F341" t="s">
+        <v>1898</v>
+      </c>
+      <c r="G341" t="s">
         <v>1899</v>
       </c>
-      <c r="G341" t="s">
-        <v>1900</v>
-      </c>
       <c r="H341" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I341">
         <v>0</v>
@@ -19566,7 +19567,7 @@
         <v>390</v>
       </c>
       <c r="H342" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I342">
         <v>1</v>
@@ -19601,10 +19602,10 @@
         <v>390</v>
       </c>
       <c r="F343" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="H343" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I343">
         <v>1</v>
@@ -19639,10 +19640,10 @@
         <v>390</v>
       </c>
       <c r="F344" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="H344" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I344">
         <v>1</v>
@@ -19677,13 +19678,13 @@
         <v>431</v>
       </c>
       <c r="F345" t="s">
+        <v>1902</v>
+      </c>
+      <c r="G345" t="s">
         <v>1903</v>
       </c>
-      <c r="G345" t="s">
-        <v>1904</v>
-      </c>
       <c r="H345" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I345">
         <v>0</v>
@@ -19712,13 +19713,13 @@
         <v>442</v>
       </c>
       <c r="F346" t="s">
+        <v>1904</v>
+      </c>
+      <c r="G346" t="s">
         <v>1905</v>
       </c>
-      <c r="G346" t="s">
-        <v>1906</v>
-      </c>
       <c r="H346" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I346">
         <v>0</v>
@@ -19747,13 +19748,13 @@
         <v>390</v>
       </c>
       <c r="F347" t="s">
+        <v>1906</v>
+      </c>
+      <c r="G347" t="s">
         <v>1907</v>
       </c>
-      <c r="G347" t="s">
-        <v>1908</v>
-      </c>
       <c r="H347" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I347">
         <v>1</v>
@@ -19788,10 +19789,10 @@
         <v>390</v>
       </c>
       <c r="F348" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="H348" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="I348">
         <v>1</v>
@@ -19826,10 +19827,10 @@
         <v>390</v>
       </c>
       <c r="G349" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="H349" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="I349">
         <v>0</v>
@@ -19864,10 +19865,10 @@
         <v>390</v>
       </c>
       <c r="F350" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="H350" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="I350">
         <v>1</v>
@@ -19902,13 +19903,13 @@
         <v>390</v>
       </c>
       <c r="F351" t="s">
+        <v>1911</v>
+      </c>
+      <c r="G351" t="s">
         <v>1912</v>
       </c>
-      <c r="G351" t="s">
-        <v>1913</v>
-      </c>
       <c r="H351" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I351">
         <v>1</v>
@@ -19943,7 +19944,7 @@
         <v>390</v>
       </c>
       <c r="H352" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I352">
         <v>0</v>
@@ -19978,13 +19979,13 @@
         <v>517</v>
       </c>
       <c r="F353" t="s">
+        <v>1913</v>
+      </c>
+      <c r="G353" t="s">
         <v>1914</v>
       </c>
-      <c r="G353" t="s">
-        <v>1915</v>
-      </c>
       <c r="H353" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="I353">
         <v>0</v>
@@ -20013,13 +20014,13 @@
         <v>442</v>
       </c>
       <c r="F354" t="s">
+        <v>1915</v>
+      </c>
+      <c r="G354" t="s">
         <v>1916</v>
       </c>
-      <c r="G354" t="s">
-        <v>1917</v>
-      </c>
       <c r="H354" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="I354">
         <v>0</v>
@@ -20051,13 +20052,13 @@
         <v>390</v>
       </c>
       <c r="F355" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G355" t="s">
         <v>1918</v>
       </c>
-      <c r="G355" t="s">
-        <v>1919</v>
-      </c>
       <c r="H355" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I355">
         <v>1</v>
@@ -20092,13 +20093,13 @@
         <v>390</v>
       </c>
       <c r="F356" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G356" t="s">
         <v>1918</v>
       </c>
-      <c r="G356" t="s">
-        <v>1919</v>
-      </c>
       <c r="H356" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I356">
         <v>1</v>
@@ -20133,13 +20134,13 @@
         <v>390</v>
       </c>
       <c r="F357" t="s">
+        <v>1919</v>
+      </c>
+      <c r="G357" t="s">
         <v>1920</v>
       </c>
-      <c r="G357" t="s">
-        <v>1921</v>
-      </c>
       <c r="H357" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="I357">
         <v>1</v>
@@ -20174,13 +20175,13 @@
         <v>390</v>
       </c>
       <c r="F358" t="s">
+        <v>1921</v>
+      </c>
+      <c r="G358" t="s">
         <v>1922</v>
       </c>
-      <c r="G358" t="s">
-        <v>1923</v>
-      </c>
       <c r="H358" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I358">
         <v>1</v>
@@ -20215,13 +20216,13 @@
         <v>390</v>
       </c>
       <c r="F359" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="G359" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="H359" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I359">
         <v>1</v>
@@ -20256,13 +20257,13 @@
         <v>390</v>
       </c>
       <c r="F360" t="s">
+        <v>1924</v>
+      </c>
+      <c r="G360" t="s">
         <v>1925</v>
       </c>
-      <c r="G360" t="s">
-        <v>1926</v>
-      </c>
       <c r="H360" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I360">
         <v>0</v>
@@ -20297,13 +20298,13 @@
         <v>390</v>
       </c>
       <c r="F361" t="s">
+        <v>1926</v>
+      </c>
+      <c r="G361" t="s">
         <v>1927</v>
       </c>
-      <c r="G361" t="s">
-        <v>1928</v>
-      </c>
       <c r="H361" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="I361">
         <v>0</v>
@@ -20338,13 +20339,13 @@
         <v>390</v>
       </c>
       <c r="F362" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G362" t="s">
         <v>1929</v>
       </c>
-      <c r="G362" t="s">
-        <v>1930</v>
-      </c>
       <c r="H362" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="I362">
         <v>1</v>
@@ -20379,13 +20380,13 @@
         <v>390</v>
       </c>
       <c r="F363" t="s">
+        <v>1930</v>
+      </c>
+      <c r="G363" t="s">
         <v>1931</v>
       </c>
-      <c r="G363" t="s">
-        <v>1932</v>
-      </c>
       <c r="H363" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="I363">
         <v>1</v>
@@ -20420,10 +20421,10 @@
         <v>390</v>
       </c>
       <c r="F364" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="H364" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="I364">
         <v>1</v>
@@ -20458,13 +20459,13 @@
         <v>390</v>
       </c>
       <c r="F365" t="s">
+        <v>1933</v>
+      </c>
+      <c r="G365" t="s">
         <v>1934</v>
       </c>
-      <c r="G365" t="s">
-        <v>1935</v>
-      </c>
       <c r="H365" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="I365">
         <v>1</v>
@@ -20499,13 +20500,13 @@
         <v>431</v>
       </c>
       <c r="F366" t="s">
+        <v>1935</v>
+      </c>
+      <c r="G366" t="s">
         <v>1936</v>
       </c>
-      <c r="G366" t="s">
-        <v>1937</v>
-      </c>
       <c r="H366" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I366">
         <v>0</v>
@@ -20534,10 +20535,10 @@
         <v>390</v>
       </c>
       <c r="F367" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="H367" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="I367">
         <v>0</v>
@@ -20572,13 +20573,13 @@
         <v>390</v>
       </c>
       <c r="F368" t="s">
+        <v>1938</v>
+      </c>
+      <c r="G368" t="s">
         <v>1939</v>
       </c>
-      <c r="G368" t="s">
-        <v>1940</v>
-      </c>
       <c r="H368" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="I368">
         <v>1</v>
@@ -20613,13 +20614,13 @@
         <v>442</v>
       </c>
       <c r="F369" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G369" t="s">
         <v>1941</v>
       </c>
-      <c r="G369" t="s">
-        <v>1942</v>
-      </c>
       <c r="H369" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="I369">
         <v>0</v>
@@ -20648,13 +20649,13 @@
         <v>431</v>
       </c>
       <c r="F370" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G370" t="s">
         <v>1943</v>
       </c>
-      <c r="G370" t="s">
-        <v>1944</v>
-      </c>
       <c r="H370" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="I370">
         <v>1</v>
@@ -20686,13 +20687,13 @@
         <v>390</v>
       </c>
       <c r="F371" t="s">
+        <v>1944</v>
+      </c>
+      <c r="G371" t="s">
         <v>1945</v>
       </c>
-      <c r="G371" t="s">
-        <v>1946</v>
-      </c>
       <c r="H371" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="I371">
         <v>0</v>
@@ -20727,13 +20728,13 @@
         <v>517</v>
       </c>
       <c r="F372" t="s">
+        <v>1946</v>
+      </c>
+      <c r="G372" t="s">
         <v>1947</v>
       </c>
-      <c r="G372" t="s">
-        <v>1948</v>
-      </c>
       <c r="H372" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="I372">
         <v>0</v>
@@ -20762,13 +20763,13 @@
         <v>517</v>
       </c>
       <c r="F373" t="s">
+        <v>1948</v>
+      </c>
+      <c r="G373" t="s">
         <v>1949</v>
       </c>
-      <c r="G373" t="s">
-        <v>1950</v>
-      </c>
       <c r="H373" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="I373">
         <v>0</v>
@@ -20800,10 +20801,10 @@
         <v>390</v>
       </c>
       <c r="F374" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="H374" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="I374">
         <v>0</v>
@@ -20838,13 +20839,13 @@
         <v>390</v>
       </c>
       <c r="F375" t="s">
+        <v>1951</v>
+      </c>
+      <c r="G375" t="s">
         <v>1952</v>
       </c>
-      <c r="G375" t="s">
-        <v>1953</v>
-      </c>
       <c r="H375" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="I375">
         <v>0</v>
@@ -20879,13 +20880,13 @@
         <v>390</v>
       </c>
       <c r="F376" t="s">
+        <v>1953</v>
+      </c>
+      <c r="G376" t="s">
         <v>1954</v>
       </c>
-      <c r="G376" t="s">
-        <v>1955</v>
-      </c>
       <c r="H376" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="I376">
         <v>0</v>
@@ -20920,13 +20921,13 @@
         <v>431</v>
       </c>
       <c r="F377" t="s">
+        <v>1955</v>
+      </c>
+      <c r="G377" t="s">
         <v>1956</v>
       </c>
-      <c r="G377" t="s">
-        <v>1957</v>
-      </c>
       <c r="H377" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="I377">
         <v>1</v>
@@ -20952,13 +20953,13 @@
         <v>390</v>
       </c>
       <c r="F378" t="s">
+        <v>1957</v>
+      </c>
+      <c r="G378" t="s">
         <v>1958</v>
       </c>
-      <c r="G378" t="s">
-        <v>1959</v>
-      </c>
       <c r="H378" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="I378">
         <v>1</v>

--- a/infolib.xlsx
+++ b/infolib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/privatstudium/Documents/Programming/PythonApps/SpeciesInfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F89BAE-C45B-1E43-B240-590FA17623BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B475D7-5A74-0F45-8237-3BC8B41073A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="3440" windowWidth="38400" windowHeight="21100" xr2:uid="{3105EC4B-B3DB-D644-9FE8-AF38650C143C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{3105EC4B-B3DB-D644-9FE8-AF38650C143C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5170" uniqueCount="2571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5587" uniqueCount="2589">
   <si>
     <t>CRY4more</t>
   </si>
@@ -7749,6 +7749,60 @@
   </si>
   <si>
     <t>Sea lamprey</t>
+  </si>
+  <si>
+    <t>K002000162_73740</t>
+  </si>
+  <si>
+    <t>SRR11118090</t>
+  </si>
+  <si>
+    <t>SRR11537198</t>
+  </si>
+  <si>
+    <t>genome</t>
+  </si>
+  <si>
+    <t>trancriptome</t>
+  </si>
+  <si>
+    <t>SeqType</t>
+  </si>
+  <si>
+    <t>Ostorhinchus doederleini</t>
+  </si>
+  <si>
+    <t>Ichthyosaura alpestris</t>
+  </si>
+  <si>
+    <t>Sprattus sprattus</t>
+  </si>
+  <si>
+    <t>(Laurenti 1768)</t>
+  </si>
+  <si>
+    <t>(Jordan &amp; Snyder, 1901)</t>
+  </si>
+  <si>
+    <t>Salamandridae</t>
+  </si>
+  <si>
+    <t>Ichthyosaura</t>
+  </si>
+  <si>
+    <t>Ostorhinchus</t>
+  </si>
+  <si>
+    <t>Sprattus</t>
+  </si>
+  <si>
+    <t>alpestris</t>
+  </si>
+  <si>
+    <t>doederleini</t>
+  </si>
+  <si>
+    <t>sprattus</t>
   </si>
 </sst>
 </file>
@@ -8153,10 +8207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944E8950-FE77-014B-82B7-3C6C92F9BADB}">
-  <dimension ref="A1:T378"/>
+  <dimension ref="A1:U381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F230" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K240" sqref="K240"/>
+    <sheetView tabSelected="1" topLeftCell="H357" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="R384" sqref="R384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8177,9 +8231,10 @@
     <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>386</v>
       </c>
@@ -8240,8 +8295,11 @@
       <c r="T1" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" s="2" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>109</v>
       </c>
@@ -8293,8 +8351,11 @@
       <c r="T2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U2" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>170</v>
       </c>
@@ -8349,8 +8410,11 @@
       <c r="T3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U3" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>256</v>
       </c>
@@ -8408,8 +8472,11 @@
       <c r="T4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U4" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>368</v>
       </c>
@@ -8464,8 +8531,11 @@
       <c r="T5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U5" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>56</v>
       </c>
@@ -8523,8 +8593,11 @@
       <c r="T6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U6" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>367</v>
       </c>
@@ -8576,8 +8649,11 @@
       <c r="T7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>40</v>
       </c>
@@ -8635,8 +8711,11 @@
       <c r="T8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>88</v>
       </c>
@@ -8688,8 +8767,11 @@
       <c r="T9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>324</v>
       </c>
@@ -8744,8 +8826,11 @@
       <c r="T10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>297</v>
       </c>
@@ -8803,8 +8888,11 @@
       <c r="T11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>13</v>
       </c>
@@ -8862,8 +8950,11 @@
       <c r="T12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>260</v>
       </c>
@@ -8921,8 +9012,11 @@
       <c r="T13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>33</v>
       </c>
@@ -8980,8 +9074,11 @@
       <c r="T14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>50</v>
       </c>
@@ -9036,8 +9133,11 @@
       <c r="T15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>336</v>
       </c>
@@ -9095,8 +9195,11 @@
       <c r="T16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U16" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>102</v>
       </c>
@@ -9154,8 +9257,11 @@
       <c r="T17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U17" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>65</v>
       </c>
@@ -9213,8 +9319,11 @@
       <c r="T18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U18" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>316</v>
       </c>
@@ -9272,8 +9381,11 @@
       <c r="T19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U19" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10</v>
       </c>
@@ -9331,8 +9443,11 @@
       <c r="T20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U20" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>302</v>
       </c>
@@ -9390,8 +9505,11 @@
       <c r="T21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U21" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>46</v>
       </c>
@@ -9449,8 +9567,11 @@
       <c r="T22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U22" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -9508,8 +9629,11 @@
       <c r="T23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U23" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>200</v>
       </c>
@@ -9564,8 +9688,11 @@
       <c r="T24" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U24" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>8</v>
       </c>
@@ -9623,8 +9750,11 @@
       <c r="T25" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U25" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>100</v>
       </c>
@@ -9682,8 +9812,11 @@
       <c r="T26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U26" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>166</v>
       </c>
@@ -9741,8 +9874,11 @@
       <c r="T27" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U27" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>79</v>
       </c>
@@ -9800,8 +9936,11 @@
       <c r="T28" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U28" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>112</v>
       </c>
@@ -9853,8 +9992,11 @@
       <c r="T29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U29" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>221</v>
       </c>
@@ -9906,8 +10048,11 @@
       <c r="T30" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U30" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>330</v>
       </c>
@@ -9965,8 +10110,11 @@
       <c r="T31" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U31" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>338</v>
       </c>
@@ -10021,8 +10169,11 @@
       <c r="T32" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U32" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0</v>
       </c>
@@ -10074,8 +10225,11 @@
       <c r="T33" s="1" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U33" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>83</v>
       </c>
@@ -10133,8 +10287,11 @@
       <c r="T34" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U34" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>278</v>
       </c>
@@ -10189,8 +10346,11 @@
       <c r="T35" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U35" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>162</v>
       </c>
@@ -10248,8 +10408,11 @@
       <c r="T36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U36" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>369</v>
       </c>
@@ -10301,8 +10464,11 @@
       <c r="T37" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U37" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>365</v>
       </c>
@@ -10348,8 +10514,11 @@
       <c r="T38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U38" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>230</v>
       </c>
@@ -10407,8 +10576,11 @@
       <c r="T39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U39" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>335</v>
       </c>
@@ -10466,8 +10638,11 @@
       <c r="T40" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U40" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>359</v>
       </c>
@@ -10525,8 +10700,11 @@
       <c r="T41" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U41" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>232</v>
       </c>
@@ -10584,8 +10762,11 @@
       <c r="T42" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U42" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>243</v>
       </c>
@@ -10640,8 +10821,11 @@
       <c r="T43" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U43" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>291</v>
       </c>
@@ -10699,8 +10883,11 @@
       <c r="T44" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U44" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>296</v>
       </c>
@@ -10752,8 +10939,11 @@
       <c r="T45" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U45" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>99</v>
       </c>
@@ -10805,8 +10995,11 @@
       <c r="T46" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U46" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>220</v>
       </c>
@@ -10864,8 +11057,11 @@
       <c r="T47" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U47" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>217</v>
       </c>
@@ -10923,8 +11119,11 @@
       <c r="T48" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U48" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>141</v>
       </c>
@@ -10979,8 +11178,11 @@
       <c r="T49" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U49" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>187</v>
       </c>
@@ -11038,8 +11240,11 @@
       <c r="T50" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U50" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>169</v>
       </c>
@@ -11097,8 +11302,11 @@
       <c r="T51" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U51" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>342</v>
       </c>
@@ -11156,8 +11364,11 @@
       <c r="T52" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U52" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>343</v>
       </c>
@@ -11215,8 +11426,11 @@
       <c r="T53" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U53" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>239</v>
       </c>
@@ -11271,8 +11485,11 @@
       <c r="T54" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U54" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>147</v>
       </c>
@@ -11330,8 +11547,11 @@
       <c r="T55" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U55" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>182</v>
       </c>
@@ -11386,8 +11606,11 @@
       <c r="T56" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U56" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>41</v>
       </c>
@@ -11442,8 +11665,11 @@
       <c r="T57" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U57" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>266</v>
       </c>
@@ -11498,8 +11724,11 @@
       <c r="T58" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U58" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>143</v>
       </c>
@@ -11554,8 +11783,11 @@
       <c r="T59" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U59" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>146</v>
       </c>
@@ -11613,8 +11845,11 @@
       <c r="T60" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U60" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>165</v>
       </c>
@@ -11672,8 +11907,11 @@
       <c r="T61" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U61" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>93</v>
       </c>
@@ -11725,8 +11963,11 @@
       <c r="T62" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U62" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>371</v>
       </c>
@@ -11784,8 +12025,11 @@
       <c r="T63" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U63" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>78</v>
       </c>
@@ -11840,8 +12084,11 @@
       <c r="T64" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U64" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>51</v>
       </c>
@@ -11893,8 +12140,11 @@
       <c r="T65" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U65" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>211</v>
       </c>
@@ -11949,8 +12199,11 @@
       <c r="T66" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U66" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>212</v>
       </c>
@@ -12008,8 +12261,11 @@
       <c r="T67" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U67" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>176</v>
       </c>
@@ -12064,8 +12320,11 @@
       <c r="T68" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U68" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>265</v>
       </c>
@@ -12123,8 +12382,11 @@
       <c r="T69" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U69" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>319</v>
       </c>
@@ -12182,8 +12444,11 @@
       <c r="T70" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U70" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>98</v>
       </c>
@@ -12235,8 +12500,11 @@
       <c r="T71" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U71" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>292</v>
       </c>
@@ -12288,8 +12556,11 @@
       <c r="T72" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U72" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>373</v>
       </c>
@@ -12341,8 +12612,11 @@
       <c r="T73" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U73" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>358</v>
       </c>
@@ -12400,8 +12674,11 @@
       <c r="T74" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U74" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>322</v>
       </c>
@@ -12459,8 +12736,11 @@
       <c r="T75" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U75" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>315</v>
       </c>
@@ -12509,8 +12789,11 @@
       <c r="T76" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U76" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>294</v>
       </c>
@@ -12562,8 +12845,11 @@
       <c r="T77" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U77" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>310</v>
       </c>
@@ -12612,8 +12898,11 @@
       <c r="T78" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U78" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>111</v>
       </c>
@@ -12668,8 +12957,11 @@
       <c r="T79" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U79" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>201</v>
       </c>
@@ -12727,8 +13019,11 @@
       <c r="T80" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U80" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>329</v>
       </c>
@@ -12780,8 +13075,11 @@
       <c r="T81" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U81" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>282</v>
       </c>
@@ -12833,8 +13131,11 @@
       <c r="T82" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U82" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>30</v>
       </c>
@@ -12892,8 +13193,11 @@
       <c r="T83" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U83" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>339</v>
       </c>
@@ -12948,8 +13252,11 @@
       <c r="T84" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U84" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>19</v>
       </c>
@@ -13004,8 +13311,11 @@
       <c r="T85" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U85" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>113</v>
       </c>
@@ -13060,8 +13370,11 @@
       <c r="T86" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U86" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>287</v>
       </c>
@@ -13119,8 +13432,11 @@
       <c r="T87" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U87" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>288</v>
       </c>
@@ -13178,8 +13494,11 @@
       <c r="T88" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U88" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>234</v>
       </c>
@@ -13234,8 +13553,11 @@
       <c r="T89" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U89" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>237</v>
       </c>
@@ -13293,8 +13615,11 @@
       <c r="T90" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U90" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>241</v>
       </c>
@@ -13352,8 +13677,11 @@
       <c r="T91" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U91" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>139</v>
       </c>
@@ -13408,8 +13736,11 @@
       <c r="T92" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U92" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>205</v>
       </c>
@@ -13467,8 +13798,11 @@
       <c r="T93" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U93" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>206</v>
       </c>
@@ -13526,8 +13860,11 @@
       <c r="T94" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U94" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>218</v>
       </c>
@@ -13585,8 +13922,11 @@
       <c r="T95" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U95" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>225</v>
       </c>
@@ -13644,8 +13984,11 @@
       <c r="T96" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U96" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>191</v>
       </c>
@@ -13700,8 +14043,11 @@
       <c r="T97" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U97" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>82</v>
       </c>
@@ -13753,8 +14099,11 @@
       <c r="T98" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U98" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>344</v>
       </c>
@@ -13812,8 +14161,11 @@
       <c r="T99" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U99" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>285</v>
       </c>
@@ -13862,8 +14214,11 @@
       <c r="T100" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U100" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>9</v>
       </c>
@@ -13921,8 +14276,11 @@
       <c r="T101" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U101" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>120</v>
       </c>
@@ -13974,8 +14332,11 @@
       <c r="T102" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U102" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>196</v>
       </c>
@@ -14030,8 +14391,11 @@
       <c r="T103" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U103" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>195</v>
       </c>
@@ -14086,8 +14450,11 @@
       <c r="T104" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U104" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>107</v>
       </c>
@@ -14139,8 +14506,11 @@
       <c r="T105" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U105" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>325</v>
       </c>
@@ -14192,8 +14562,11 @@
       <c r="T106" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U106" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>223</v>
       </c>
@@ -14251,8 +14624,11 @@
       <c r="T107" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U107" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>104</v>
       </c>
@@ -14301,8 +14677,11 @@
       <c r="T108" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U108" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>347</v>
       </c>
@@ -14357,8 +14736,11 @@
       <c r="T109" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U109" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>267</v>
       </c>
@@ -14416,8 +14798,11 @@
       <c r="T110" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U110" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>303</v>
       </c>
@@ -14475,8 +14860,11 @@
       <c r="T111" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U111" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>332</v>
       </c>
@@ -14531,8 +14919,11 @@
       <c r="T112" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U112" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>70</v>
       </c>
@@ -14590,8 +14981,11 @@
       <c r="T113" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U113" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>207</v>
       </c>
@@ -14649,8 +15043,11 @@
       <c r="T114" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U114" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>345</v>
       </c>
@@ -14708,8 +15105,11 @@
       <c r="T115" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U115" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>128</v>
       </c>
@@ -14761,8 +15161,11 @@
       <c r="T116" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U116" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>275</v>
       </c>
@@ -14820,8 +15223,11 @@
       <c r="T117" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U117" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>299</v>
       </c>
@@ -14879,8 +15285,11 @@
       <c r="T118" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U118" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>123</v>
       </c>
@@ -14932,8 +15341,11 @@
       <c r="T119" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U119" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>121</v>
       </c>
@@ -14985,8 +15397,11 @@
       <c r="T120" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U120" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>320</v>
       </c>
@@ -15041,8 +15456,11 @@
       <c r="T121" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U121" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>122</v>
       </c>
@@ -15097,8 +15515,11 @@
       <c r="T122" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U122" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>309</v>
       </c>
@@ -15153,8 +15574,11 @@
       <c r="T123" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U123" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>240</v>
       </c>
@@ -15212,8 +15636,11 @@
       <c r="T124" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U124" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>152</v>
       </c>
@@ -15271,8 +15698,11 @@
       <c r="T125" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U125" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>150</v>
       </c>
@@ -15330,8 +15760,11 @@
       <c r="T126" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U126" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>357</v>
       </c>
@@ -15389,8 +15822,11 @@
       <c r="T127" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U127" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>318</v>
       </c>
@@ -15448,8 +15884,11 @@
       <c r="T128" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U128" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>35</v>
       </c>
@@ -15507,8 +15946,11 @@
       <c r="T129" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U129" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>75</v>
       </c>
@@ -15566,8 +16008,11 @@
       <c r="T130" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U130" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>90</v>
       </c>
@@ -15622,8 +16067,11 @@
       <c r="T131" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U131" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>360</v>
       </c>
@@ -15672,8 +16120,11 @@
       <c r="T132" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U132" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>199</v>
       </c>
@@ -15728,8 +16179,11 @@
       <c r="T133" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U133" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>331</v>
       </c>
@@ -15787,8 +16241,11 @@
       <c r="T134" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U134" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>277</v>
       </c>
@@ -15840,8 +16297,11 @@
       <c r="T135" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U135" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>279</v>
       </c>
@@ -15884,8 +16344,11 @@
       <c r="T136" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U136" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>126</v>
       </c>
@@ -15937,8 +16400,11 @@
       <c r="T137" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U137" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>333</v>
       </c>
@@ -15990,8 +16456,11 @@
       <c r="T138" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U138" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>341</v>
       </c>
@@ -16046,8 +16515,11 @@
       <c r="T139" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U139" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>172</v>
       </c>
@@ -16102,8 +16574,11 @@
       <c r="T140" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U140" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>228</v>
       </c>
@@ -16158,8 +16633,11 @@
       <c r="T141" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U141" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>116</v>
       </c>
@@ -16211,8 +16689,11 @@
       <c r="T142" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U142" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>254</v>
       </c>
@@ -16267,8 +16748,11 @@
       <c r="T143" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U143" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>290</v>
       </c>
@@ -16326,8 +16810,11 @@
       <c r="T144" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U144" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>314</v>
       </c>
@@ -16382,8 +16869,11 @@
       <c r="T145" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U145" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>154</v>
       </c>
@@ -16441,8 +16931,11 @@
       <c r="T146" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U146" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>108</v>
       </c>
@@ -16500,8 +16993,11 @@
       <c r="T147" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U147" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>224</v>
       </c>
@@ -16559,8 +17055,11 @@
       <c r="T148" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U148" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>198</v>
       </c>
@@ -16618,8 +17117,11 @@
       <c r="T149" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U149" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>38</v>
       </c>
@@ -16677,8 +17179,11 @@
       <c r="T150" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U150" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>67</v>
       </c>
@@ -16736,8 +17241,11 @@
       <c r="T151" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U151" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>59</v>
       </c>
@@ -16795,8 +17303,11 @@
       <c r="T152" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U152" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>194</v>
       </c>
@@ -16854,8 +17365,11 @@
       <c r="T153" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U153" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>53</v>
       </c>
@@ -16910,8 +17424,11 @@
       <c r="T154" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U154" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>328</v>
       </c>
@@ -16963,8 +17480,11 @@
       <c r="T155" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U155" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>84</v>
       </c>
@@ -17016,8 +17536,11 @@
       <c r="T156" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U156" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>57</v>
       </c>
@@ -17072,8 +17595,11 @@
       <c r="T157" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U157" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2</v>
       </c>
@@ -17131,8 +17657,11 @@
       <c r="T158" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U158" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>334</v>
       </c>
@@ -17190,8 +17719,11 @@
       <c r="T159" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U159" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>289</v>
       </c>
@@ -17246,8 +17778,11 @@
       <c r="T160" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U160" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>161</v>
       </c>
@@ -17302,8 +17837,11 @@
       <c r="T161" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U161" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>148</v>
       </c>
@@ -17361,8 +17899,11 @@
       <c r="T162" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U162" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>168</v>
       </c>
@@ -17417,8 +17958,11 @@
       <c r="T163" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U163" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>242</v>
       </c>
@@ -17473,8 +18017,11 @@
       <c r="T164" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U164" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>251</v>
       </c>
@@ -17532,8 +18079,11 @@
       <c r="T165" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U165" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>327</v>
       </c>
@@ -17585,8 +18135,11 @@
       <c r="T166" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U166" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>231</v>
       </c>
@@ -17644,8 +18197,11 @@
       <c r="T167" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U167" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>164</v>
       </c>
@@ -17703,8 +18259,11 @@
       <c r="T168" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U168" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>129</v>
       </c>
@@ -17762,8 +18321,11 @@
       <c r="T169" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U169" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>76</v>
       </c>
@@ -17818,8 +18380,11 @@
       <c r="T170" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U170" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>142</v>
       </c>
@@ -17877,8 +18442,11 @@
       <c r="T171" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U171" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>363</v>
       </c>
@@ -17933,8 +18501,11 @@
       <c r="T172" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U172" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>280</v>
       </c>
@@ -17992,8 +18563,11 @@
       <c r="T173" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U173" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>27</v>
       </c>
@@ -18048,8 +18622,11 @@
       <c r="T174" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U174" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>71</v>
       </c>
@@ -18107,8 +18684,11 @@
       <c r="T175" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U175" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>140</v>
       </c>
@@ -18166,8 +18746,11 @@
       <c r="T176" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U176" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>171</v>
       </c>
@@ -18222,8 +18805,11 @@
       <c r="T177" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U177" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>188</v>
       </c>
@@ -18278,8 +18864,11 @@
       <c r="T178" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U178" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>337</v>
       </c>
@@ -18334,8 +18923,11 @@
       <c r="T179" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U179" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>227</v>
       </c>
@@ -18393,8 +18985,11 @@
       <c r="T180" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U180" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1</v>
       </c>
@@ -18446,8 +19041,11 @@
       <c r="T181" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U181" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>304</v>
       </c>
@@ -18505,8 +19103,11 @@
       <c r="T182" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U182" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>60</v>
       </c>
@@ -18558,8 +19159,11 @@
       <c r="T183" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U183" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>3</v>
       </c>
@@ -18617,8 +19221,11 @@
       <c r="T184" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U184" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>130</v>
       </c>
@@ -18676,8 +19283,11 @@
       <c r="T185" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U185" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>138</v>
       </c>
@@ -18732,8 +19342,11 @@
       <c r="T186" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U186" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>321</v>
       </c>
@@ -18791,8 +19404,11 @@
       <c r="T187" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U187" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>215</v>
       </c>
@@ -18850,8 +19466,11 @@
       <c r="T188" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U188" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>185</v>
       </c>
@@ -18909,8 +19528,11 @@
       <c r="T189" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U189" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>177</v>
       </c>
@@ -18968,8 +19590,11 @@
       <c r="T190" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U190" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>167</v>
       </c>
@@ -19027,8 +19652,11 @@
       <c r="T191" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U191" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>174</v>
       </c>
@@ -19086,8 +19714,11 @@
       <c r="T192" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U192" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>94</v>
       </c>
@@ -19142,8 +19773,11 @@
       <c r="T193" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U193" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>127</v>
       </c>
@@ -19195,8 +19829,11 @@
       <c r="T194" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U194" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>353</v>
       </c>
@@ -19245,8 +19882,11 @@
       <c r="T195" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U195" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>29</v>
       </c>
@@ -19301,8 +19941,11 @@
       <c r="T196" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U196" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>20</v>
       </c>
@@ -19357,8 +20000,11 @@
       <c r="T197" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U197" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>22</v>
       </c>
@@ -19416,8 +20062,11 @@
       <c r="T198" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U198" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>307</v>
       </c>
@@ -19466,8 +20115,11 @@
       <c r="T199" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U199" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>179</v>
       </c>
@@ -19525,8 +20177,11 @@
       <c r="T200" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U200" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>186</v>
       </c>
@@ -19581,8 +20236,11 @@
       <c r="T201" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U201" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>159</v>
       </c>
@@ -19640,8 +20298,11 @@
       <c r="T202" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U202" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>47</v>
       </c>
@@ -19696,8 +20357,11 @@
       <c r="T203" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U203" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>68</v>
       </c>
@@ -19752,8 +20416,11 @@
       <c r="T204" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U204" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>136</v>
       </c>
@@ -19808,8 +20475,11 @@
       <c r="T205" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U205" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>295</v>
       </c>
@@ -19864,8 +20534,11 @@
       <c r="T206" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U206" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>305</v>
       </c>
@@ -19923,8 +20596,11 @@
       <c r="T207" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U207" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>178</v>
       </c>
@@ -19982,8 +20658,11 @@
       <c r="T208" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U208" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>149</v>
       </c>
@@ -20038,8 +20717,11 @@
       <c r="T209" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U209" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>356</v>
       </c>
@@ -20094,8 +20776,11 @@
       <c r="T210" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U210" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>81</v>
       </c>
@@ -20153,8 +20838,11 @@
       <c r="T211" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U211" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>229</v>
       </c>
@@ -20212,8 +20900,11 @@
       <c r="T212" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U212" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>189</v>
       </c>
@@ -20268,8 +20959,11 @@
       <c r="T213" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U213" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>247</v>
       </c>
@@ -20327,8 +21021,11 @@
       <c r="T214" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U214" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>80</v>
       </c>
@@ -20386,8 +21083,11 @@
       <c r="T215" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U215" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>284</v>
       </c>
@@ -20442,8 +21142,11 @@
       <c r="T216" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U216" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>238</v>
       </c>
@@ -20498,8 +21201,11 @@
       <c r="T217" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U217" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>101</v>
       </c>
@@ -20557,8 +21263,11 @@
       <c r="T218" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U218" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>255</v>
       </c>
@@ -20616,8 +21325,11 @@
       <c r="T219" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U219" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>257</v>
       </c>
@@ -20675,8 +21387,11 @@
       <c r="T220" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U220" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>276</v>
       </c>
@@ -20734,8 +21449,11 @@
       <c r="T221" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U221" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>262</v>
       </c>
@@ -20793,8 +21511,11 @@
       <c r="T222" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U222" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>366</v>
       </c>
@@ -20846,8 +21567,11 @@
       <c r="T223" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U223" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>66</v>
       </c>
@@ -20905,8 +21629,11 @@
       <c r="T224" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U224" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>44</v>
       </c>
@@ -20961,8 +21688,11 @@
       <c r="T225" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U225" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>197</v>
       </c>
@@ -21017,8 +21747,11 @@
       <c r="T226" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U226" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>72</v>
       </c>
@@ -21076,8 +21809,11 @@
       <c r="T227" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U227" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>253</v>
       </c>
@@ -21135,8 +21871,11 @@
       <c r="T228" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U228" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>86</v>
       </c>
@@ -21191,8 +21930,11 @@
       <c r="T229" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U229" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>272</v>
       </c>
@@ -21250,8 +21992,11 @@
       <c r="T230" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U230" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>52</v>
       </c>
@@ -21309,8 +22054,11 @@
       <c r="T231" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U231" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>258</v>
       </c>
@@ -21368,8 +22116,11 @@
       <c r="T232" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U232" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>264</v>
       </c>
@@ -21421,8 +22172,11 @@
       <c r="T233" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U233" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>131</v>
       </c>
@@ -21480,8 +22234,11 @@
       <c r="T234" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U234" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>45</v>
       </c>
@@ -21536,8 +22293,11 @@
       <c r="T235" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U235" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>77</v>
       </c>
@@ -21595,8 +22355,11 @@
       <c r="T236" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U236" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>31</v>
       </c>
@@ -21651,8 +22414,11 @@
       <c r="T237" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U237" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>11</v>
       </c>
@@ -21707,8 +22473,11 @@
       <c r="T238" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U238" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="239" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>268</v>
       </c>
@@ -21766,8 +22535,11 @@
       <c r="T239" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U239" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>158</v>
       </c>
@@ -21822,8 +22594,11 @@
       <c r="T240" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U240" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>23</v>
       </c>
@@ -21878,8 +22653,11 @@
       <c r="T241" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U241" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>340</v>
       </c>
@@ -21937,8 +22715,11 @@
       <c r="T242" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U242" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>261</v>
       </c>
@@ -21990,8 +22771,11 @@
       <c r="T243" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U243" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>370</v>
       </c>
@@ -22043,8 +22827,11 @@
       <c r="T244" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U244" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>133</v>
       </c>
@@ -22096,8 +22883,11 @@
       <c r="T245" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U245" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>362</v>
       </c>
@@ -22146,8 +22936,11 @@
       <c r="T246" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U246" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>274</v>
       </c>
@@ -22205,8 +22998,11 @@
       <c r="T247" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U247" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>43</v>
       </c>
@@ -22264,8 +23060,11 @@
       <c r="T248" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U248" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>132</v>
       </c>
@@ -22323,8 +23122,11 @@
       <c r="T249" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U249" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>14</v>
       </c>
@@ -22382,8 +23184,11 @@
       <c r="T250" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U250" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>15</v>
       </c>
@@ -22435,8 +23240,11 @@
       <c r="T251" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U251" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>293</v>
       </c>
@@ -22488,8 +23296,11 @@
       <c r="T252" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U252" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>298</v>
       </c>
@@ -22547,8 +23358,11 @@
       <c r="T253" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U253" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>281</v>
       </c>
@@ -22600,8 +23414,11 @@
       <c r="T254" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U254" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>97</v>
       </c>
@@ -22656,8 +23473,11 @@
       <c r="T255" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U255" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>114</v>
       </c>
@@ -22715,8 +23535,11 @@
       <c r="T256" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U256" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>214</v>
       </c>
@@ -22774,8 +23597,11 @@
       <c r="T257" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U257" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>135</v>
       </c>
@@ -22830,8 +23656,11 @@
       <c r="T258" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U258" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>137</v>
       </c>
@@ -22886,8 +23715,11 @@
       <c r="T259" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U259" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>273</v>
       </c>
@@ -22939,8 +23771,11 @@
       <c r="T260" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U260" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>12</v>
       </c>
@@ -22998,8 +23833,11 @@
       <c r="T261" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U261" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>306</v>
       </c>
@@ -23057,8 +23895,11 @@
       <c r="T262" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U262" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>208</v>
       </c>
@@ -23116,8 +23957,11 @@
       <c r="T263" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U263" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>69</v>
       </c>
@@ -23172,8 +24016,11 @@
       <c r="T264" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U264" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>110</v>
       </c>
@@ -23225,8 +24072,11 @@
       <c r="T265" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U265" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="266" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>233</v>
       </c>
@@ -23284,8 +24134,11 @@
       <c r="T266" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U266" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>244</v>
       </c>
@@ -23343,8 +24196,11 @@
       <c r="T267" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U267" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="268" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>245</v>
       </c>
@@ -23402,8 +24258,11 @@
       <c r="T268" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U268" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>235</v>
       </c>
@@ -23461,8 +24320,11 @@
       <c r="T269" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U269" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>106</v>
       </c>
@@ -23514,8 +24376,11 @@
       <c r="T270" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U270" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>175</v>
       </c>
@@ -23573,8 +24438,11 @@
       <c r="T271" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U271" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="272" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>134</v>
       </c>
@@ -23629,8 +24497,11 @@
       <c r="T272" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U272" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>58</v>
       </c>
@@ -23682,8 +24553,11 @@
       <c r="T273" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U273" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="274" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>119</v>
       </c>
@@ -23735,8 +24609,11 @@
       <c r="T274" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U274" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>89</v>
       </c>
@@ -23794,8 +24671,11 @@
       <c r="T275" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U275" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="276" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>184</v>
       </c>
@@ -23850,8 +24730,11 @@
       <c r="T276" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U276" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>17</v>
       </c>
@@ -23906,8 +24789,11 @@
       <c r="T277" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U277" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>92</v>
       </c>
@@ -23959,8 +24845,11 @@
       <c r="T278" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U278" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>42</v>
       </c>
@@ -24018,8 +24907,11 @@
       <c r="T279" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U279" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>252</v>
       </c>
@@ -24077,8 +24969,11 @@
       <c r="T280" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U280" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>311</v>
       </c>
@@ -24136,8 +25031,11 @@
       <c r="T281" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U281" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>372</v>
       </c>
@@ -24195,8 +25093,11 @@
       <c r="T282" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U282" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="283" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>313</v>
       </c>
@@ -24254,8 +25155,11 @@
       <c r="T283" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U283" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>151</v>
       </c>
@@ -24313,8 +25217,11 @@
       <c r="T284" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U284" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="285" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>74</v>
       </c>
@@ -24372,8 +25279,11 @@
       <c r="T285" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U285" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>4</v>
       </c>
@@ -24431,8 +25341,11 @@
       <c r="T286" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U286" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="287" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>350</v>
       </c>
@@ -24481,8 +25394,11 @@
       <c r="T287" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U287" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>55</v>
       </c>
@@ -24540,8 +25456,11 @@
       <c r="T288" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U288" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="289" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>153</v>
       </c>
@@ -24596,8 +25515,11 @@
       <c r="T289" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U289" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="290" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>308</v>
       </c>
@@ -24649,8 +25571,11 @@
       <c r="T290" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U290" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="291" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>354</v>
       </c>
@@ -24705,8 +25630,11 @@
       <c r="T291" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U291" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="292" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>210</v>
       </c>
@@ -24764,8 +25692,11 @@
       <c r="T292" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U292" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="293" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>226</v>
       </c>
@@ -24823,8 +25754,11 @@
       <c r="T293" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U293" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="294" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>351</v>
       </c>
@@ -24882,8 +25816,11 @@
       <c r="T294" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U294" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="295" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>263</v>
       </c>
@@ -24941,8 +25878,11 @@
       <c r="T295" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U295" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="296" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>87</v>
       </c>
@@ -25000,8 +25940,11 @@
       <c r="T296" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U296" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="297" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>192</v>
       </c>
@@ -25059,8 +26002,11 @@
       <c r="T297" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U297" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="298" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>16</v>
       </c>
@@ -25115,8 +26061,11 @@
       <c r="T298" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U298" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="299" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>326</v>
       </c>
@@ -25174,8 +26123,11 @@
       <c r="T299" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U299" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="300" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>364</v>
       </c>
@@ -25227,8 +26179,11 @@
       <c r="T300" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U300" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="301" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>204</v>
       </c>
@@ -25280,8 +26235,11 @@
       <c r="T301" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U301" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="302" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>348</v>
       </c>
@@ -25339,8 +26297,11 @@
       <c r="T302" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U302" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="303" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>36</v>
       </c>
@@ -25398,8 +26359,11 @@
       <c r="T303" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U303" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="304" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>26</v>
       </c>
@@ -25454,8 +26418,11 @@
       <c r="T304" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U304" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="305" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>62</v>
       </c>
@@ -25507,8 +26474,11 @@
       <c r="T305" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U305" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="306" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>24</v>
       </c>
@@ -25563,8 +26533,11 @@
       <c r="T306" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U306" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="307" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>7</v>
       </c>
@@ -25619,8 +26592,11 @@
       <c r="T307" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U307" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="308" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>156</v>
       </c>
@@ -25678,8 +26654,11 @@
       <c r="T308" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U308" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="309" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>63</v>
       </c>
@@ -25731,8 +26710,11 @@
       <c r="T309" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U309" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="310" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>6</v>
       </c>
@@ -25790,8 +26772,11 @@
       <c r="T310" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U310" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="311" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>61</v>
       </c>
@@ -25846,8 +26831,11 @@
       <c r="T311" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U311" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="312" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>25</v>
       </c>
@@ -25902,8 +26890,11 @@
       <c r="T312" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U312" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="313" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>312</v>
       </c>
@@ -25958,8 +26949,11 @@
       <c r="T313" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U313" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="314" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>163</v>
       </c>
@@ -26017,8 +27011,11 @@
       <c r="T314" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U314" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="315" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>259</v>
       </c>
@@ -26076,8 +27073,11 @@
       <c r="T315" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U315" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="316" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>34</v>
       </c>
@@ -26135,8 +27135,11 @@
       <c r="T316" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U316" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="317" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>28</v>
       </c>
@@ -26191,8 +27194,11 @@
       <c r="T317" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U317" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="318" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>32</v>
       </c>
@@ -26247,8 +27253,11 @@
       <c r="T318" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U318" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="319" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>219</v>
       </c>
@@ -26306,8 +27315,11 @@
       <c r="T319" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U319" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="320" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>190</v>
       </c>
@@ -26359,8 +27371,11 @@
       <c r="T320" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U320" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>248</v>
       </c>
@@ -26412,8 +27427,11 @@
       <c r="T321" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U321" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>250</v>
       </c>
@@ -26468,8 +27486,11 @@
       <c r="T322" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U322" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>249</v>
       </c>
@@ -26521,8 +27542,11 @@
       <c r="T323" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U323" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>346</v>
       </c>
@@ -26580,8 +27604,11 @@
       <c r="T324" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U324" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="325" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>355</v>
       </c>
@@ -26639,8 +27666,11 @@
       <c r="T325" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U325" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>157</v>
       </c>
@@ -26698,8 +27728,11 @@
       <c r="T326" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U326" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="327" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>18</v>
       </c>
@@ -26754,8 +27787,11 @@
       <c r="T327" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U327" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="328" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>236</v>
       </c>
@@ -26810,8 +27846,11 @@
       <c r="T328" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U328" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>95</v>
       </c>
@@ -26863,8 +27902,11 @@
       <c r="T329" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U329" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>202</v>
       </c>
@@ -26922,8 +27964,11 @@
       <c r="T330" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U330" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>271</v>
       </c>
@@ -26969,8 +28014,11 @@
       <c r="T331" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U331" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>173</v>
       </c>
@@ -27025,8 +28073,11 @@
       <c r="T332" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U332" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="333" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>96</v>
       </c>
@@ -27084,8 +28135,11 @@
       <c r="T333" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U333" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="334" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>103</v>
       </c>
@@ -27143,8 +28197,11 @@
       <c r="T334" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U334" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="335" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>181</v>
       </c>
@@ -27202,8 +28259,11 @@
       <c r="T335" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U335" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="336" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>376</v>
       </c>
@@ -27252,8 +28312,11 @@
       <c r="T336" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U336" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="337" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>203</v>
       </c>
@@ -27311,8 +28374,11 @@
       <c r="T337" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U337" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="338" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>352</v>
       </c>
@@ -27370,8 +28436,11 @@
       <c r="T338" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U338" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="339" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>317</v>
       </c>
@@ -27423,8 +28492,11 @@
       <c r="T339" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U339" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="340" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>269</v>
       </c>
@@ -27482,8 +28554,11 @@
       <c r="T340" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U340" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="341" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>270</v>
       </c>
@@ -27535,8 +28610,11 @@
       <c r="T341" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U341" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="342" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>54</v>
       </c>
@@ -27588,8 +28666,11 @@
       <c r="T342" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U342" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="343" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>49</v>
       </c>
@@ -27644,8 +28725,11 @@
       <c r="T343" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U343" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="344" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>349</v>
       </c>
@@ -27700,8 +28784,11 @@
       <c r="T344" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U344" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="345" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>124</v>
       </c>
@@ -27753,8 +28840,11 @@
       <c r="T345" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U345" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="346" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>91</v>
       </c>
@@ -27806,8 +28896,11 @@
       <c r="T346" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U346" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="347" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>213</v>
       </c>
@@ -27865,8 +28958,11 @@
       <c r="T347" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U347" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="348" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>115</v>
       </c>
@@ -27921,8 +29017,11 @@
       <c r="T348" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U348" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="349" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>216</v>
       </c>
@@ -27977,8 +29076,11 @@
       <c r="T349" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U349" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="350" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>48</v>
       </c>
@@ -28033,8 +29135,11 @@
       <c r="T350" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U350" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="351" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>85</v>
       </c>
@@ -28092,8 +29197,11 @@
       <c r="T351" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U351" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="352" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>361</v>
       </c>
@@ -28145,8 +29253,11 @@
       <c r="T352" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U352" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="353" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>286</v>
       </c>
@@ -28198,8 +29309,11 @@
       <c r="T353" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U353" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="354" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>117</v>
       </c>
@@ -28254,8 +29368,11 @@
       <c r="T354" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U354" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="355" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>155</v>
       </c>
@@ -28313,8 +29430,11 @@
       <c r="T355" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U355" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="356" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>375</v>
       </c>
@@ -28372,8 +29492,11 @@
       <c r="T356" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U356" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="357" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>374</v>
       </c>
@@ -28431,8 +29554,11 @@
       <c r="T357" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U357" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="358" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>5</v>
       </c>
@@ -28490,8 +29616,11 @@
       <c r="T358" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U358" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="359" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>37</v>
       </c>
@@ -28549,8 +29678,11 @@
       <c r="T359" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U359" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="360" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>64</v>
       </c>
@@ -28608,8 +29740,11 @@
       <c r="T360" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U360" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="361" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>323</v>
       </c>
@@ -28667,8 +29802,11 @@
       <c r="T361" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U361" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="362" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>193</v>
       </c>
@@ -28726,8 +29864,11 @@
       <c r="T362" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U362" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="363" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>209</v>
       </c>
@@ -28785,8 +29926,11 @@
       <c r="T363" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U363" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="364" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>180</v>
       </c>
@@ -28841,8 +29985,11 @@
       <c r="T364" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U364" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="365" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>160</v>
       </c>
@@ -28900,8 +30047,11 @@
       <c r="T365" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U365" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="366" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>300</v>
       </c>
@@ -28953,8 +30103,11 @@
       <c r="T366" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U366" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="367" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>73</v>
       </c>
@@ -29009,8 +30162,11 @@
       <c r="T367" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U367" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="368" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>145</v>
       </c>
@@ -29068,8 +30224,11 @@
       <c r="T368" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U368" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="369" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>118</v>
       </c>
@@ -29121,8 +30280,11 @@
       <c r="T369" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U369" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="370" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>301</v>
       </c>
@@ -29177,8 +30339,11 @@
       <c r="T370" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U370" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="371" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>144</v>
       </c>
@@ -29236,8 +30401,11 @@
       <c r="T371" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U371" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="372" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>125</v>
       </c>
@@ -29289,8 +30457,11 @@
       <c r="T372" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U372" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="373" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>222</v>
       </c>
@@ -29345,8 +30516,11 @@
       <c r="T373" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U373" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="374" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>105</v>
       </c>
@@ -29401,8 +30575,11 @@
       <c r="T374" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U374" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="375" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>246</v>
       </c>
@@ -29460,8 +30637,11 @@
       <c r="T375" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U375" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="376" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>39</v>
       </c>
@@ -29519,8 +30699,11 @@
       <c r="T376" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U376" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="377" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>283</v>
       </c>
@@ -29569,8 +30752,11 @@
       <c r="T377" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U377" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="378" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>183</v>
       </c>
@@ -29627,6 +30813,168 @@
       </c>
       <c r="T378" t="s">
         <v>38</v>
+      </c>
+      <c r="U378" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="379" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B379" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E379" t="s">
+        <v>1946</v>
+      </c>
+      <c r="F379" t="s">
+        <v>1800</v>
+      </c>
+      <c r="G379" t="s">
+        <v>2582</v>
+      </c>
+      <c r="H379" t="s">
+        <v>2583</v>
+      </c>
+      <c r="I379" t="s">
+        <v>2586</v>
+      </c>
+      <c r="K379" t="s">
+        <v>2578</v>
+      </c>
+      <c r="L379" t="s">
+        <v>2580</v>
+      </c>
+      <c r="O379" t="s">
+        <v>720</v>
+      </c>
+      <c r="P379">
+        <v>0</v>
+      </c>
+      <c r="Q379">
+        <v>0</v>
+      </c>
+      <c r="R379">
+        <v>1</v>
+      </c>
+      <c r="S379">
+        <v>1</v>
+      </c>
+      <c r="T379" t="s">
+        <v>0</v>
+      </c>
+      <c r="U379" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="380" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B380" t="s">
+        <v>2571</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E380" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F380" t="s">
+        <v>1614</v>
+      </c>
+      <c r="G380" t="s">
+        <v>2424</v>
+      </c>
+      <c r="H380" t="s">
+        <v>2584</v>
+      </c>
+      <c r="I380" t="s">
+        <v>2587</v>
+      </c>
+      <c r="K380" t="s">
+        <v>2577</v>
+      </c>
+      <c r="L380" t="s">
+        <v>2581</v>
+      </c>
+      <c r="O380" t="s">
+        <v>390</v>
+      </c>
+      <c r="P380">
+        <v>1</v>
+      </c>
+      <c r="Q380">
+        <v>0</v>
+      </c>
+      <c r="R380">
+        <v>0</v>
+      </c>
+      <c r="S380">
+        <v>0</v>
+      </c>
+      <c r="T380" t="s">
+        <v>0</v>
+      </c>
+      <c r="U380" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="381" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B381" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D381" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E381" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F381" t="s">
+        <v>1638</v>
+      </c>
+      <c r="G381" t="s">
+        <v>1639</v>
+      </c>
+      <c r="H381" t="s">
+        <v>2585</v>
+      </c>
+      <c r="I381" t="s">
+        <v>2588</v>
+      </c>
+      <c r="K381" t="s">
+        <v>2579</v>
+      </c>
+      <c r="L381" t="s">
+        <v>782</v>
+      </c>
+      <c r="O381" t="s">
+        <v>390</v>
+      </c>
+      <c r="P381">
+        <v>1</v>
+      </c>
+      <c r="Q381">
+        <v>1</v>
+      </c>
+      <c r="R381">
+        <v>0</v>
+      </c>
+      <c r="S381">
+        <v>0</v>
+      </c>
+      <c r="T381" t="s">
+        <v>0</v>
+      </c>
+      <c r="U381" t="s">
+        <v>2575</v>
       </c>
     </row>
   </sheetData>
